--- a/probes-kaernten.xlsx
+++ b/probes-kaernten.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\PHD\python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\PHD\latencygit\LatencyRipeAtlasTestapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1484A523-7F4D-4DCA-8803-85A32DA06FDE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2967FE5-1A45-40A6-9A15-AB858A11F405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24690" windowHeight="12030" activeTab="3" xr2:uid="{D727A93F-974F-4232-A99D-75145BF25FFF}"/>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16485" windowHeight="8280" activeTab="3" xr2:uid="{4CDCC59F-ED48-4ECA-89B1-0E7ED602A2C4}"/>
+    <workbookView xWindow="9210" yWindow="-17295" windowWidth="27030" windowHeight="15330" firstSheet="2" activeTab="3" xr2:uid="{4CDCC59F-ED48-4ECA-89B1-0E7ED602A2C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,12 +23,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="522">
   <si>
     <t>Probe and Target overview</t>
   </si>
@@ -1599,6 +1609,15 @@
   </si>
   <si>
     <t>Net4you (194.177.155.138)</t>
+  </si>
+  <si>
+    <t>Feldkirchen-oja</t>
+  </si>
+  <si>
+    <t>Villach-net4you</t>
+  </si>
+  <si>
+    <t>Hermagor-NETcompany</t>
   </si>
 </sst>
 </file>
@@ -1914,7 +1933,7 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1994,9 +2013,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2004,12 +2020,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="3" applyAlignment="1">
@@ -2021,42 +2031,41 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2068,46 +2077,46 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2146,13 +2155,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2171,7 +2177,6 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
@@ -2494,54 +2499,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DD6B1D1-4A00-415D-9A95-920EEC34E2A6}">
   <dimension ref="A1:I111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.26953125" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="26.54296875" style="4" customWidth="1"/>
     <col min="5" max="5" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.81640625" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="63" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="1"/>
+    <col min="9" max="16384" width="11.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="5"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -2567,7 +2569,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>6827</v>
       </c>
@@ -2593,7 +2595,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>6120</v>
       </c>
@@ -2619,7 +2621,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>7046</v>
       </c>
@@ -2645,7 +2647,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>6354</v>
       </c>
@@ -2671,12 +2673,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>50074</v>
       </c>
@@ -2699,7 +2701,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>50397</v>
       </c>
@@ -2725,7 +2727,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>15476</v>
       </c>
@@ -2751,7 +2753,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>15439</v>
       </c>
@@ -2777,14 +2779,14 @@
         <v>341</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>349</v>
       </c>
       <c r="C18" s="9"/>
       <c r="H18" s="24"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>52794</v>
       </c>
@@ -2813,11 +2815,11 @@
         <v>355</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C20" s="9"/>
       <c r="H20" s="24"/>
     </row>
-    <row r="22" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="16" t="s">
         <v>252</v>
       </c>
@@ -2829,7 +2831,7 @@
       <c r="G22" s="12"/>
       <c r="H22" s="10"/>
     </row>
-    <row r="23" spans="1:9" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" s="13" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A23" s="11">
         <v>25440</v>
       </c>
@@ -2855,7 +2857,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" s="13" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A24" s="11">
         <v>16101</v>
       </c>
@@ -2881,7 +2883,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" s="13" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A25" s="11">
         <v>52549</v>
       </c>
@@ -2907,7 +2909,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="11">
         <v>1002001</v>
       </c>
@@ -2933,7 +2935,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="11">
         <v>3395</v>
       </c>
@@ -2959,7 +2961,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="11">
         <v>53213</v>
       </c>
@@ -2985,7 +2987,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="11">
         <v>52690</v>
       </c>
@@ -3009,12 +3011,12 @@
       </c>
       <c r="H29" s="10"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B32" s="4" t="s">
         <v>254</v>
       </c>
@@ -3028,7 +3030,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B33" s="4" t="s">
         <v>255</v>
       </c>
@@ -3042,7 +3044,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B34" s="4" t="s">
         <v>258</v>
       </c>
@@ -3062,7 +3064,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B35" s="4" t="s">
         <v>316</v>
       </c>
@@ -3082,7 +3084,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B36" s="4" t="s">
         <v>73</v>
       </c>
@@ -3090,7 +3092,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B37" s="4" t="s">
         <v>260</v>
       </c>
@@ -3110,7 +3112,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B38" s="4" t="s">
         <v>261</v>
       </c>
@@ -3130,7 +3132,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B39" s="4" t="s">
         <v>278</v>
       </c>
@@ -3150,7 +3152,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B40" s="4" t="s">
         <v>262</v>
       </c>
@@ -3170,7 +3172,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B41" s="4" t="s">
         <v>263</v>
       </c>
@@ -3187,7 +3189,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B42" s="4" t="s">
         <v>264</v>
       </c>
@@ -3195,7 +3197,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B43" s="1" t="s">
         <v>268</v>
       </c>
@@ -3213,7 +3215,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B44" s="4" t="s">
         <v>297</v>
       </c>
@@ -3236,7 +3238,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B45" s="4" t="s">
         <v>301</v>
       </c>
@@ -3253,7 +3255,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B46" s="4" t="s">
         <v>306</v>
       </c>
@@ -3270,7 +3272,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B47" s="4" t="s">
         <v>310</v>
       </c>
@@ -3290,7 +3292,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B48" s="4" t="s">
         <v>321</v>
       </c>
@@ -3310,7 +3312,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B49" s="4" t="s">
         <v>324</v>
       </c>
@@ -3330,7 +3332,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B50" s="4" t="s">
         <v>329</v>
       </c>
@@ -3350,7 +3352,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B51" s="4" t="s">
         <v>330</v>
       </c>
@@ -3370,12 +3372,12 @@
         <v>333</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B54" s="4" t="s">
         <v>265</v>
       </c>
@@ -3389,7 +3391,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B55" s="4" t="s">
         <v>287</v>
       </c>
@@ -3403,7 +3405,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B56" s="4" t="s">
         <v>289</v>
       </c>
@@ -3417,7 +3419,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B57" s="4" t="s">
         <v>292</v>
       </c>
@@ -3431,7 +3433,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="21" t="s">
         <v>334</v>
       </c>
@@ -3443,7 +3445,7 @@
       <c r="G60" s="19"/>
       <c r="H60" s="17"/>
     </row>
-    <row r="61" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="18">
         <v>7013</v>
       </c>
@@ -3469,7 +3471,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="18">
         <v>6360</v>
       </c>
@@ -3495,7 +3497,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="18">
         <v>6042</v>
       </c>
@@ -3519,7 +3521,7 @@
       </c>
       <c r="H63" s="17"/>
     </row>
-    <row r="64" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="18">
         <v>6304</v>
       </c>
@@ -3543,7 +3545,7 @@
       </c>
       <c r="H64" s="17"/>
     </row>
-    <row r="65" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="18">
         <v>6334</v>
       </c>
@@ -3567,7 +3569,7 @@
       </c>
       <c r="H65" s="17"/>
     </row>
-    <row r="66" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="18">
         <v>7008</v>
       </c>
@@ -3591,7 +3593,7 @@
       </c>
       <c r="H66" s="17"/>
     </row>
-    <row r="67" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="18">
         <v>7040</v>
       </c>
@@ -3615,7 +3617,7 @@
       </c>
       <c r="H67" s="17"/>
     </row>
-    <row r="68" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="18">
         <v>6325</v>
       </c>
@@ -3639,7 +3641,7 @@
       </c>
       <c r="H68" s="17"/>
     </row>
-    <row r="69" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="18">
         <v>6686</v>
       </c>
@@ -3663,12 +3665,12 @@
       </c>
       <c r="H69" s="17"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>52129</v>
       </c>
@@ -3694,7 +3696,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>50864</v>
       </c>
@@ -3720,7 +3722,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>11586</v>
       </c>
@@ -3746,7 +3748,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>348</v>
       </c>
@@ -3772,7 +3774,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>938</v>
       </c>
@@ -3795,12 +3797,12 @@
         <v>226</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>6861</v>
       </c>
@@ -3823,7 +3825,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>6541</v>
       </c>
@@ -3846,7 +3848,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>7056</v>
       </c>
@@ -3869,13 +3871,13 @@
         <v>130</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
         <v>200</v>
       </c>
       <c r="C81" s="9"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>13738</v>
       </c>
@@ -3901,12 +3903,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>6327</v>
       </c>
@@ -3929,12 +3931,12 @@
         <v>135</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>7085</v>
       </c>
@@ -3957,7 +3959,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>6424</v>
       </c>
@@ -3980,7 +3982,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>6094</v>
       </c>
@@ -4003,7 +4005,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>6329</v>
       </c>
@@ -4026,7 +4028,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>6895</v>
       </c>
@@ -4049,7 +4051,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>6316</v>
       </c>
@@ -4072,7 +4074,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>6767</v>
       </c>
@@ -4095,12 +4097,12 @@
         <v>168</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C96" s="4" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C97" s="9" t="s">
         <v>169</v>
       </c>
@@ -4108,7 +4110,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C98" s="9" t="s">
         <v>170</v>
       </c>
@@ -4116,12 +4118,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" s="4" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
         <v>55566</v>
       </c>
@@ -4144,7 +4146,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
         <v>54863</v>
       </c>
@@ -4170,7 +4172,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
         <v>974</v>
       </c>
@@ -4193,7 +4195,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
         <v>51216</v>
       </c>
@@ -4219,7 +4221,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
         <v>55043</v>
       </c>
@@ -4245,7 +4247,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" s="2">
         <v>28083</v>
       </c>
@@ -4268,7 +4270,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" s="2">
         <v>44</v>
       </c>
@@ -4291,7 +4293,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" s="2">
         <v>1003272</v>
       </c>
@@ -4314,7 +4316,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" s="2">
         <v>31106</v>
       </c>
@@ -4340,7 +4342,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" s="2">
         <v>1003271</v>
       </c>
@@ -4366,7 +4368,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" s="2">
         <v>22358</v>
       </c>
@@ -4389,7 +4391,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" s="2">
         <v>32701</v>
       </c>
@@ -4481,44 +4483,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{522D069A-3DCE-4989-9AE4-E31C51E10648}">
   <dimension ref="A1:N105"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" style="2" customWidth="1"/>
     <col min="3" max="3" width="15" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="26.5703125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.1796875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="26.54296875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="11.26953125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.81640625" style="7" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="63" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="15.5703125" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="11.42578125" style="1"/>
+    <col min="12" max="14" width="15.54296875" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="11.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E1" s="9"/>
       <c r="K1" s="24"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>423</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B3" s="80" t="s">
+    <row r="3" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B3" s="76" t="s">
         <v>486</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="76" t="s">
         <v>487</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -4555,241 +4554,229 @@
         <v>362</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B4" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="G4" s="31">
+      <c r="G4" s="2">
         <v>1111</v>
       </c>
-      <c r="H4" s="35" t="s">
+      <c r="H4" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="77" t="s">
+      <c r="I4" s="73" t="s">
         <v>450</v>
       </c>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35" t="s">
+      <c r="J4" s="32"/>
+      <c r="K4" s="32" t="s">
         <v>410</v>
       </c>
-      <c r="L4" s="30" t="s">
+      <c r="L4" s="29" t="s">
         <v>399</v>
       </c>
-      <c r="M4" s="32" t="s">
+      <c r="M4" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="N4" s="33" t="s">
+      <c r="N4" s="30" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B5" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="G5" s="31">
+      <c r="G5" s="2">
         <v>47147</v>
       </c>
-      <c r="H5" s="35" t="s">
+      <c r="H5" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="77" t="s">
+      <c r="I5" s="73" t="s">
         <v>451</v>
       </c>
-      <c r="J5" s="78" t="s">
+      <c r="J5" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="35" t="s">
+      <c r="K5" s="32" t="s">
         <v>410</v>
       </c>
-      <c r="L5" s="28" t="s">
+      <c r="L5" s="27" t="s">
         <v>387</v>
       </c>
-      <c r="M5" s="32" t="s">
+      <c r="M5" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="N5" s="33" t="s">
+      <c r="N5" s="30" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B6" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="2">
         <v>61098</v>
       </c>
-      <c r="H6" s="35" t="s">
+      <c r="H6" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="77" t="s">
+      <c r="I6" s="73" t="s">
         <v>452</v>
       </c>
-      <c r="J6" s="78" t="s">
+      <c r="J6" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="35" t="s">
+      <c r="K6" s="32" t="s">
         <v>410</v>
       </c>
-      <c r="L6" s="33" t="s">
+      <c r="L6" s="30" t="s">
         <v>361</v>
       </c>
-      <c r="M6" s="32" t="s">
+      <c r="M6" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="N6" s="33" t="s">
+      <c r="N6" s="30" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B7" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="G7" s="31">
+      <c r="G7" s="2">
         <v>61438</v>
       </c>
-      <c r="H7" s="35" t="s">
+      <c r="H7" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="77" t="s">
+      <c r="I7" s="73" t="s">
         <v>453</v>
       </c>
-      <c r="J7" s="78" t="s">
+      <c r="J7" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="35" t="s">
+      <c r="K7" s="32" t="s">
         <v>410</v>
       </c>
-      <c r="L7" s="28" t="s">
+      <c r="L7" s="27" t="s">
         <v>387</v>
       </c>
-      <c r="M7" s="32" t="s">
+      <c r="M7" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="N7" s="34" t="s">
+      <c r="N7" s="31" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B8" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="G8" s="31">
+      <c r="G8" s="2">
         <v>50226</v>
       </c>
-      <c r="H8" s="35" t="s">
+      <c r="H8" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="77" t="s">
+      <c r="I8" s="73" t="s">
         <v>454</v>
       </c>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35" t="s">
+      <c r="J8" s="32"/>
+      <c r="K8" s="32" t="s">
         <v>419</v>
       </c>
-      <c r="L8" s="29" t="s">
+      <c r="L8" s="28" t="s">
         <v>361</v>
       </c>
-      <c r="M8" s="32" t="s">
+      <c r="M8" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="N8" s="29" t="s">
+      <c r="N8" s="28" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B9" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="G9" s="31">
+      <c r="G9" s="2">
         <v>39912</v>
       </c>
-      <c r="H9" s="35" t="s">
+      <c r="H9" s="32" t="s">
         <v>449</v>
       </c>
-      <c r="I9" s="77" t="s">
+      <c r="I9" s="73" t="s">
         <v>455</v>
       </c>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35" t="s">
+      <c r="J9" s="32"/>
+      <c r="K9" s="32" t="s">
         <v>385</v>
       </c>
-      <c r="L9" s="28" t="s">
+      <c r="L9" s="27" t="s">
         <v>387</v>
       </c>
-      <c r="M9" s="32" t="s">
+      <c r="M9" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="N9" s="29" t="s">
+      <c r="N9" s="28" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D10" s="4" t="s">
         <v>358</v>
       </c>
@@ -4808,20 +4795,20 @@
       <c r="I10" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="K10" s="27" t="s">
+      <c r="K10" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="L10" s="29" t="s">
+      <c r="L10" s="28" t="s">
         <v>361</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="N10" s="29" t="s">
+      <c r="N10" s="28" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D11" s="4" t="s">
         <v>258</v>
       </c>
@@ -4843,17 +4830,17 @@
       <c r="K11" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="L11" s="29" t="s">
+      <c r="L11" s="28" t="s">
         <v>361</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N11" s="29" t="s">
+      <c r="N11" s="28" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D12" s="4" t="s">
         <v>316</v>
       </c>
@@ -4866,29 +4853,29 @@
       <c r="G12" s="2">
         <v>6798</v>
       </c>
-      <c r="H12" s="35" t="s">
+      <c r="H12" s="32" t="s">
         <v>318</v>
       </c>
-      <c r="I12" s="77" t="s">
+      <c r="I12" s="73" t="s">
         <v>458</v>
       </c>
-      <c r="J12" s="78" t="s">
+      <c r="J12" s="74" t="s">
         <v>319</v>
       </c>
-      <c r="K12" s="35" t="s">
+      <c r="K12" s="32" t="s">
         <v>385</v>
       </c>
-      <c r="L12" s="28" t="s">
+      <c r="L12" s="27" t="s">
         <v>387</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="N12" s="30" t="s">
+      <c r="N12" s="29" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B13" s="2" t="s">
         <v>387</v>
       </c>
@@ -4904,29 +4891,29 @@
       <c r="G13" s="2">
         <v>6798</v>
       </c>
-      <c r="H13" s="79">
+      <c r="H13" s="75">
         <v>194177155138</v>
       </c>
-      <c r="I13" s="77" t="s">
+      <c r="I13" s="73" t="s">
         <v>458</v>
       </c>
-      <c r="J13" s="78" t="s">
+      <c r="J13" s="74" t="s">
         <v>346</v>
       </c>
-      <c r="K13" s="35" t="s">
+      <c r="K13" s="32" t="s">
         <v>385</v>
       </c>
-      <c r="L13" s="28" t="s">
+      <c r="L13" s="27" t="s">
         <v>387</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="N13" s="30" t="s">
+      <c r="N13" s="29" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B14" s="2" t="s">
         <v>387</v>
       </c>
@@ -4942,29 +4929,29 @@
       <c r="G14" s="2">
         <v>61201</v>
       </c>
-      <c r="H14" s="35" t="s">
+      <c r="H14" s="32" t="s">
         <v>336</v>
       </c>
-      <c r="I14" s="77" t="s">
+      <c r="I14" s="73" t="s">
         <v>459</v>
       </c>
-      <c r="J14" s="78" t="s">
+      <c r="J14" s="74" t="s">
         <v>337</v>
       </c>
-      <c r="K14" s="35" t="s">
+      <c r="K14" s="32" t="s">
         <v>419</v>
       </c>
-      <c r="L14" s="28" t="s">
+      <c r="L14" s="27" t="s">
         <v>387</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="N14" s="28" t="s">
+      <c r="N14" s="27" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D15" s="4" t="s">
         <v>260</v>
       </c>
@@ -4986,17 +4973,17 @@
       <c r="K15" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="L15" s="28" t="s">
+      <c r="L15" s="27" t="s">
         <v>387</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="N15" s="28" t="s">
+      <c r="N15" s="27" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D16" s="4" t="s">
         <v>261</v>
       </c>
@@ -5018,17 +5005,17 @@
       <c r="K16" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="L16" s="29" t="s">
+      <c r="L16" s="28" t="s">
         <v>361</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="N16" s="29" t="s">
+      <c r="N16" s="28" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
       <c r="D17" s="4" t="s">
         <v>278</v>
       </c>
@@ -5050,17 +5037,17 @@
       <c r="K17" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="L17" s="29" t="s">
+      <c r="L17" s="28" t="s">
         <v>361</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="N17" s="28" t="s">
+      <c r="N17" s="27" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.35">
       <c r="D18" s="4" t="s">
         <v>262</v>
       </c>
@@ -5082,17 +5069,17 @@
       <c r="K18" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="L18" s="28" t="s">
+      <c r="L18" s="27" t="s">
         <v>387</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="N18" s="28" t="s">
+      <c r="N18" s="27" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B19" s="2" t="s">
         <v>488</v>
       </c>
@@ -5120,17 +5107,17 @@
       <c r="K19" s="24" t="s">
         <v>382</v>
       </c>
-      <c r="L19" s="29" t="s">
+      <c r="L19" s="28" t="s">
         <v>361</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="N19" s="30" t="s">
+      <c r="N19" s="29" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B20" s="2" t="s">
         <v>488</v>
       </c>
@@ -5146,27 +5133,27 @@
       <c r="G20" s="2">
         <v>1853</v>
       </c>
-      <c r="H20" s="77" t="s">
+      <c r="H20" s="73" t="s">
         <v>269</v>
       </c>
-      <c r="I20" s="77" t="s">
+      <c r="I20" s="73" t="s">
         <v>465</v>
       </c>
-      <c r="J20" s="78"/>
-      <c r="K20" s="35" t="s">
+      <c r="J20" s="74"/>
+      <c r="K20" s="32" t="s">
         <v>285</v>
       </c>
-      <c r="L20" s="29" t="s">
+      <c r="L20" s="28" t="s">
         <v>361</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="N20" s="29" t="s">
+      <c r="N20" s="28" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
       <c r="D21" s="4" t="s">
         <v>297</v>
       </c>
@@ -5179,29 +5166,29 @@
       <c r="G21" s="2">
         <v>51658</v>
       </c>
-      <c r="H21" s="35" t="s">
+      <c r="H21" s="32" t="s">
         <v>298</v>
       </c>
-      <c r="I21" s="77" t="s">
+      <c r="I21" s="73" t="s">
         <v>466</v>
       </c>
-      <c r="J21" s="78" t="s">
+      <c r="J21" s="74" t="s">
         <v>300</v>
       </c>
-      <c r="K21" s="35" t="s">
+      <c r="K21" s="32" t="s">
         <v>299</v>
       </c>
-      <c r="L21" s="28" t="s">
+      <c r="L21" s="27" t="s">
         <v>387</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="N21" s="30" t="s">
+      <c r="N21" s="29" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
       <c r="D22" s="4" t="s">
         <v>301</v>
       </c>
@@ -5220,17 +5207,17 @@
       <c r="I22" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="L22" s="30" t="s">
+      <c r="L22" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="N22" s="29" t="s">
+      <c r="N22" s="28" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
       <c r="D23" s="4" t="s">
         <v>306</v>
       </c>
@@ -5243,27 +5230,27 @@
       <c r="G23" s="2">
         <v>62373</v>
       </c>
-      <c r="H23" s="35" t="s">
+      <c r="H23" s="32" t="s">
         <v>304</v>
       </c>
-      <c r="I23" s="77" t="s">
+      <c r="I23" s="73" t="s">
         <v>468</v>
       </c>
-      <c r="J23" s="78"/>
-      <c r="K23" s="35" t="s">
+      <c r="J23" s="74"/>
+      <c r="K23" s="32" t="s">
         <v>393</v>
       </c>
-      <c r="L23" s="28" t="s">
+      <c r="L23" s="27" t="s">
         <v>387</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="N23" s="30" t="s">
+      <c r="N23" s="29" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
       <c r="D24" s="4" t="s">
         <v>310</v>
       </c>
@@ -5276,27 +5263,27 @@
       <c r="G24" s="2">
         <v>212640</v>
       </c>
-      <c r="H24" s="35" t="s">
+      <c r="H24" s="32" t="s">
         <v>311</v>
       </c>
-      <c r="I24" s="77" t="s">
+      <c r="I24" s="73" t="s">
         <v>469</v>
       </c>
-      <c r="J24" s="78"/>
-      <c r="K24" s="35" t="s">
+      <c r="J24" s="74"/>
+      <c r="K24" s="32" t="s">
         <v>392</v>
       </c>
-      <c r="L24" s="28" t="s">
+      <c r="L24" s="27" t="s">
         <v>387</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="N24" s="28" t="s">
+      <c r="N24" s="27" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
       <c r="D25" s="4" t="s">
         <v>321</v>
       </c>
@@ -5318,17 +5305,17 @@
       <c r="K25" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="L25" s="28" t="s">
+      <c r="L25" s="27" t="s">
         <v>387</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="N25" s="28" t="s">
+      <c r="N25" s="27" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.35">
       <c r="D26" s="4" t="s">
         <v>324</v>
       </c>
@@ -5350,17 +5337,17 @@
       <c r="K26" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="L26" s="29" t="s">
+      <c r="L26" s="28" t="s">
         <v>361</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N26" s="29" t="s">
+      <c r="N26" s="28" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.35">
       <c r="D27" s="4" t="s">
         <v>329</v>
       </c>
@@ -5382,17 +5369,17 @@
       <c r="K27" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="L27" s="29" t="s">
+      <c r="L27" s="28" t="s">
         <v>361</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="N27" s="29" t="s">
+      <c r="N27" s="28" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.35">
       <c r="D28" s="4" t="s">
         <v>330</v>
       </c>
@@ -5414,17 +5401,17 @@
       <c r="K28" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="L28" s="29" t="s">
+      <c r="L28" s="28" t="s">
         <v>361</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="N28" s="29" t="s">
+      <c r="N28" s="28" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
       <c r="D29" s="4" t="s">
         <v>421</v>
       </c>
@@ -5437,29 +5424,29 @@
       <c r="G29" s="2">
         <v>8447</v>
       </c>
-      <c r="H29" s="35" t="s">
+      <c r="H29" s="32" t="s">
         <v>352</v>
       </c>
-      <c r="I29" s="77" t="s">
+      <c r="I29" s="73" t="s">
         <v>473</v>
       </c>
-      <c r="J29" s="78" t="s">
+      <c r="J29" s="74" t="s">
         <v>353</v>
       </c>
-      <c r="K29" s="35" t="s">
+      <c r="K29" s="32" t="s">
         <v>392</v>
       </c>
-      <c r="L29" s="29" t="s">
+      <c r="L29" s="28" t="s">
         <v>361</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="N29" s="29" t="s">
+      <c r="N29" s="28" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B30" s="2" t="s">
         <v>488</v>
       </c>
@@ -5472,29 +5459,29 @@
       <c r="F30" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="H30" s="35" t="s">
+      <c r="H30" s="32" t="s">
         <v>482</v>
       </c>
-      <c r="I30" s="77" t="s">
+      <c r="I30" s="73" t="s">
         <v>478</v>
       </c>
-      <c r="J30" s="78" t="s">
+      <c r="J30" s="74" t="s">
         <v>296</v>
       </c>
-      <c r="K30" s="35" t="s">
+      <c r="K30" s="32" t="s">
         <v>483</v>
       </c>
-      <c r="L30" s="28" t="s">
+      <c r="L30" s="27" t="s">
         <v>387</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="N30" s="29" t="s">
+      <c r="N30" s="28" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B31" s="2" t="s">
         <v>488</v>
       </c>
@@ -5507,29 +5494,29 @@
       <c r="F31" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="H31" s="35" t="s">
+      <c r="H31" s="32" t="s">
         <v>286</v>
       </c>
-      <c r="I31" s="77" t="s">
+      <c r="I31" s="73" t="s">
         <v>479</v>
       </c>
-      <c r="J31" s="78" t="s">
+      <c r="J31" s="74" t="s">
         <v>288</v>
       </c>
-      <c r="K31" s="35" t="s">
+      <c r="K31" s="32" t="s">
         <v>424</v>
       </c>
-      <c r="L31" s="28" t="s">
+      <c r="L31" s="27" t="s">
         <v>387</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="N31" s="29" t="s">
+      <c r="N31" s="28" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B32" s="2" t="s">
         <v>488</v>
       </c>
@@ -5542,29 +5529,29 @@
       <c r="F32" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="H32" s="35" t="s">
+      <c r="H32" s="32" t="s">
         <v>293</v>
       </c>
-      <c r="I32" s="77" t="s">
+      <c r="I32" s="73" t="s">
         <v>481</v>
       </c>
-      <c r="J32" s="78" t="s">
+      <c r="J32" s="74" t="s">
         <v>294</v>
       </c>
-      <c r="K32" s="35" t="s">
+      <c r="K32" s="32" t="s">
         <v>424</v>
       </c>
-      <c r="L32" s="28" t="s">
+      <c r="L32" s="27" t="s">
         <v>387</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="N32" s="29" t="s">
+      <c r="N32" s="28" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D33" s="4" t="s">
         <v>427</v>
       </c>
@@ -5586,17 +5573,17 @@
       <c r="K33" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="L33" s="29" t="s">
+      <c r="L33" s="28" t="s">
         <v>397</v>
       </c>
       <c r="M33" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="N33" s="28" t="s">
+      <c r="N33" s="27" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D34" s="4" t="s">
         <v>430</v>
       </c>
@@ -5618,26 +5605,26 @@
       <c r="K34" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="L34" s="29" t="s">
+      <c r="L34" s="28" t="s">
         <v>361</v>
       </c>
       <c r="M34" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="N34" s="30" t="s">
+      <c r="N34" s="29" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L35" s="29"/>
-      <c r="N35" s="30"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L35" s="28"/>
+      <c r="N35" s="29"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D36" s="4" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D37" s="4" t="s">
         <v>289</v>
       </c>
@@ -5647,44 +5634,44 @@
       <c r="F37" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="H37" s="35" t="s">
+      <c r="H37" s="32" t="s">
         <v>290</v>
       </c>
-      <c r="I37" s="77" t="s">
+      <c r="I37" s="73" t="s">
         <v>480</v>
       </c>
-      <c r="J37" s="78" t="s">
+      <c r="J37" s="74" t="s">
         <v>295</v>
       </c>
-      <c r="K37" s="35" t="s">
+      <c r="K37" s="32" t="s">
         <v>424</v>
       </c>
-      <c r="L37" s="28" t="s">
+      <c r="L37" s="27" t="s">
         <v>387</v>
       </c>
       <c r="M37" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="N37" s="29" t="s">
+      <c r="N37" s="28" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H38" s="35"/>
-      <c r="I38" s="77"/>
-      <c r="J38" s="78"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="28"/>
-      <c r="N38" s="29"/>
-    </row>
-    <row r="39" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A39" s="76" t="s">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="H38" s="32"/>
+      <c r="I38" s="73"/>
+      <c r="J38" s="74"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="27"/>
+      <c r="N38" s="28"/>
+    </row>
+    <row r="39" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+      <c r="A39" s="72" t="s">
         <v>448</v>
       </c>
-      <c r="B39" s="76"/>
-      <c r="C39" s="76"/>
-    </row>
-    <row r="44" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="72"/>
+      <c r="C39" s="72"/>
+    </row>
+    <row r="44" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="21" t="s">
         <v>334</v>
       </c>
@@ -5698,7 +5685,7 @@
       <c r="J44" s="19"/>
       <c r="K44" s="17"/>
     </row>
-    <row r="45" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="18">
         <v>7013</v>
       </c>
@@ -5726,7 +5713,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="46" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="18">
         <v>6360</v>
       </c>
@@ -5754,7 +5741,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="47" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="18">
         <v>6042</v>
       </c>
@@ -5780,7 +5767,7 @@
       </c>
       <c r="K47" s="17"/>
     </row>
-    <row r="48" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="18">
         <v>6304</v>
       </c>
@@ -5806,7 +5793,7 @@
       </c>
       <c r="K48" s="17"/>
     </row>
-    <row r="49" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="18">
         <v>6334</v>
       </c>
@@ -5832,7 +5819,7 @@
       </c>
       <c r="K49" s="17"/>
     </row>
-    <row r="50" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="18">
         <v>7008</v>
       </c>
@@ -5858,7 +5845,7 @@
       </c>
       <c r="K50" s="17"/>
     </row>
-    <row r="51" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="18">
         <v>7040</v>
       </c>
@@ -5884,7 +5871,7 @@
       </c>
       <c r="K51" s="17"/>
     </row>
-    <row r="52" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="18">
         <v>6325</v>
       </c>
@@ -5910,7 +5897,7 @@
       </c>
       <c r="K52" s="17"/>
     </row>
-    <row r="53" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="18">
         <v>6686</v>
       </c>
@@ -5936,14 +5923,14 @@
       </c>
       <c r="K53" s="17"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
         <v>202</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>52129</v>
       </c>
@@ -5969,7 +5956,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>50864</v>
       </c>
@@ -5995,7 +5982,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>11586</v>
       </c>
@@ -6021,7 +6008,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>348</v>
       </c>
@@ -6047,7 +6034,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>938</v>
       </c>
@@ -6070,14 +6057,14 @@
         <v>226</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
         <v>117</v>
       </c>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>6861</v>
       </c>
@@ -6103,7 +6090,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>6541</v>
       </c>
@@ -6126,7 +6113,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>7056</v>
       </c>
@@ -6152,13 +6139,13 @@
         <v>130</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>200</v>
       </c>
       <c r="E65" s="9"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>13738</v>
       </c>
@@ -6184,14 +6171,14 @@
         <v>201</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
         <v>131</v>
       </c>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>6327</v>
       </c>
@@ -6214,14 +6201,14 @@
         <v>135</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
         <v>137</v>
       </c>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>7085</v>
       </c>
@@ -6244,7 +6231,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>6424</v>
       </c>
@@ -6267,7 +6254,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>6094</v>
       </c>
@@ -6290,7 +6277,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>6329</v>
       </c>
@@ -6313,7 +6300,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>6895</v>
       </c>
@@ -6339,7 +6326,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>6316</v>
       </c>
@@ -6362,7 +6349,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>6767</v>
       </c>
@@ -6385,12 +6372,12 @@
         <v>168</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E80" s="4" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E81" s="9" t="s">
         <v>169</v>
       </c>
@@ -6398,7 +6385,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E82" s="9" t="s">
         <v>170</v>
       </c>
@@ -6406,14 +6393,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" s="4" t="s">
         <v>184</v>
       </c>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>55566</v>
       </c>
@@ -6436,7 +6423,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>54863</v>
       </c>
@@ -6462,7 +6449,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>974</v>
       </c>
@@ -6485,7 +6472,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>51216</v>
       </c>
@@ -6511,7 +6498,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>55043</v>
       </c>
@@ -6537,7 +6524,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>28083</v>
       </c>
@@ -6560,7 +6547,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>44</v>
       </c>
@@ -6583,7 +6570,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>1003272</v>
       </c>
@@ -6606,7 +6593,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>31106</v>
       </c>
@@ -6632,7 +6619,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>1003271</v>
       </c>
@@ -6658,7 +6645,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>22358</v>
       </c>
@@ -6681,7 +6668,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>32701</v>
       </c>
@@ -6704,7 +6691,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
         <v>489</v>
       </c>
@@ -6718,7 +6705,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
         <v>491</v>
       </c>
@@ -6728,11 +6715,11 @@
       <c r="C99" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="D99" s="81" t="s">
+      <c r="D99" s="77" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
         <v>492</v>
       </c>
@@ -6742,18 +6729,18 @@
       <c r="C101" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="D101" s="83" t="s">
+      <c r="D101" s="79" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D102"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D104"/>
     </row>
-    <row r="105" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D105" s="82" t="s">
+    <row r="105" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="D105" s="78" t="s">
         <v>498</v>
       </c>
     </row>
@@ -6812,1747 +6799,1743 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3169F96-AF6D-49FC-9C00-4F6F24D4A38E}">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K48"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="132.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="132.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" style="36" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" style="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="36" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.5703125" style="37" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="22.7109375" style="55" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" style="36" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="132.42578125" style="36"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.1796875" customWidth="1"/>
+    <col min="3" max="3" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.54296875" style="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="22.7265625" style="51" customWidth="1"/>
+    <col min="11" max="11" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="73" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="73" t="s">
+    <row r="1" spans="1:11" s="69" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="69" t="s">
         <v>443</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="69" t="s">
         <v>444</v>
       </c>
-      <c r="D1" s="73" t="s">
+      <c r="D1" s="69" t="s">
         <v>445</v>
       </c>
-      <c r="E1" s="73" t="s">
+      <c r="E1" s="69" t="s">
         <v>446</v>
       </c>
-      <c r="F1" s="73" t="s">
+      <c r="F1" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="73" t="s">
+      <c r="G1" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="73" t="s">
+      <c r="H1" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="74" t="s">
+      <c r="I1" s="70" t="s">
         <v>434</v>
       </c>
-      <c r="J1" s="75" t="s">
+      <c r="J1" s="71" t="s">
         <v>435</v>
       </c>
-      <c r="K1" s="73" t="s">
+      <c r="K1" s="69" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="34" t="s">
         <v>433</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B2" s="35">
         <v>6827</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="39">
+      <c r="F2" s="35">
         <v>1111</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="H2" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="53" t="s">
+      <c r="I2" s="49" t="s">
         <v>397</v>
       </c>
-      <c r="J2" s="54" t="s">
+      <c r="J2" s="50" t="s">
         <v>387</v>
       </c>
-      <c r="K2" s="36" t="str">
+      <c r="K2" t="str">
         <f>CONCATENATE(B2,",")</f>
         <v>6827,</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="34" t="s">
         <v>433</v>
       </c>
-      <c r="B3" s="39">
+      <c r="B3" s="35">
         <v>6120</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="39">
+      <c r="F3" s="35">
         <v>42473</v>
       </c>
-      <c r="G3" s="40" t="s">
+      <c r="G3" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="42" t="s">
+      <c r="H3" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="56" t="s">
+      <c r="I3" s="52" t="s">
         <v>387</v>
       </c>
-      <c r="J3" s="54" t="s">
+      <c r="J3" s="50" t="s">
         <v>387</v>
       </c>
-      <c r="K3" s="36" t="str">
+      <c r="K3" t="str">
         <f t="shared" ref="K3:K47" si="0">CONCATENATE(B3,",")</f>
         <v>6120,</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="34" t="s">
         <v>433</v>
       </c>
-      <c r="B4" s="39">
+      <c r="B4" s="35">
         <v>7046</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="39">
+      <c r="F4" s="35">
         <v>61098</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="42" t="s">
+      <c r="H4" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="53" t="s">
+      <c r="I4" s="49" t="s">
         <v>361</v>
       </c>
-      <c r="J4" s="54" t="s">
+      <c r="J4" s="50" t="s">
         <v>387</v>
       </c>
-      <c r="K4" s="36" t="str">
+      <c r="K4" t="str">
         <f t="shared" si="0"/>
         <v>7046,</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="34" t="s">
         <v>433</v>
       </c>
-      <c r="B5" s="39">
+      <c r="B5" s="35">
         <v>6354</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="39">
+      <c r="F5" s="35">
         <v>61438</v>
       </c>
-      <c r="G5" s="40" t="s">
+      <c r="G5" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="42" t="s">
+      <c r="H5" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="56" t="s">
+      <c r="I5" s="52" t="s">
         <v>387</v>
       </c>
-      <c r="J5" s="54" t="s">
+      <c r="J5" s="50" t="s">
         <v>387</v>
       </c>
-      <c r="K5" s="36" t="str">
+      <c r="K5" t="str">
         <f t="shared" si="0"/>
         <v>6354,</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="34" t="s">
         <v>433</v>
       </c>
-      <c r="B6" s="39">
+      <c r="B6" s="35">
         <v>50074</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="39">
+      <c r="E6" s="36"/>
+      <c r="F6" s="35">
         <v>50226</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="42" t="s">
+      <c r="H6" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="53" t="s">
+      <c r="I6" s="49" t="s">
         <v>361</v>
       </c>
-      <c r="J6" s="54" t="s">
+      <c r="J6" s="50" t="s">
         <v>387</v>
       </c>
-      <c r="K6" s="36" t="str">
+      <c r="K6" t="str">
         <f t="shared" si="0"/>
         <v>50074,</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="34" t="s">
         <v>433</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="35">
         <v>50397</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="F7" s="39">
+      <c r="F7" s="35">
         <v>61201</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="G7" s="36" t="s">
         <v>336</v>
       </c>
-      <c r="H7" s="42" t="s">
+      <c r="H7" s="38" t="s">
         <v>337</v>
       </c>
-      <c r="I7" s="56" t="s">
+      <c r="I7" s="52" t="s">
         <v>387</v>
       </c>
-      <c r="J7" s="54" t="s">
+      <c r="J7" s="50" t="s">
         <v>387</v>
       </c>
-      <c r="K7" s="36" t="str">
+      <c r="K7" t="str">
         <f t="shared" si="0"/>
         <v>50397,</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="38" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="34" t="s">
         <v>433</v>
       </c>
-      <c r="B8" s="39">
+      <c r="B8" s="35">
         <v>15476</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="36" t="s">
         <v>316</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="37" t="s">
         <v>340</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="39">
+      <c r="F8" s="35">
         <v>6798</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="36" t="s">
         <v>339</v>
       </c>
-      <c r="H8" s="42" t="s">
+      <c r="H8" s="38" t="s">
         <v>346</v>
       </c>
-      <c r="I8" s="56" t="s">
+      <c r="I8" s="52" t="s">
         <v>387</v>
       </c>
-      <c r="J8" s="54" t="s">
+      <c r="J8" s="50" t="s">
         <v>387</v>
       </c>
-      <c r="K8" s="36" t="str">
+      <c r="K8" t="str">
         <f t="shared" si="0"/>
         <v>15476,</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="38" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="34" t="s">
         <v>433</v>
       </c>
-      <c r="B9" s="39">
+      <c r="B9" s="35">
         <v>15439</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="36" t="s">
         <v>316</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="37" t="s">
         <v>345</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="36" t="s">
         <v>344</v>
       </c>
-      <c r="F9" s="39">
+      <c r="F9" s="35">
         <v>6798</v>
       </c>
-      <c r="G9" s="40" t="s">
+      <c r="G9" s="36" t="s">
         <v>342</v>
       </c>
-      <c r="H9" s="42" t="s">
+      <c r="H9" s="38" t="s">
         <v>343</v>
       </c>
-      <c r="I9" s="56" t="s">
+      <c r="I9" s="52" t="s">
         <v>387</v>
       </c>
-      <c r="J9" s="54" t="s">
+      <c r="J9" s="50" t="s">
         <v>387</v>
       </c>
-      <c r="K9" s="36" t="str">
+      <c r="K9" t="str">
         <f t="shared" si="0"/>
         <v>15439,</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="39" t="s">
         <v>432</v>
       </c>
-      <c r="B10" s="44">
+      <c r="B10" s="40">
         <v>52794</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="46" t="s">
+      <c r="D10" s="42" t="s">
         <v>350</v>
       </c>
-      <c r="E10" s="45" t="s">
+      <c r="E10" s="41" t="s">
         <v>351</v>
       </c>
-      <c r="F10" s="44">
+      <c r="F10" s="40">
         <v>8447</v>
       </c>
-      <c r="G10" s="45" t="s">
+      <c r="G10" s="41" t="s">
         <v>352</v>
       </c>
-      <c r="H10" s="47" t="s">
+      <c r="H10" s="43" t="s">
         <v>353</v>
       </c>
-      <c r="I10" s="53" t="s">
+      <c r="I10" s="49" t="s">
         <v>361</v>
       </c>
-      <c r="J10" s="54" t="s">
+      <c r="J10" s="50" t="s">
         <v>387</v>
       </c>
-      <c r="K10" s="36" t="str">
+      <c r="K10" t="str">
         <f t="shared" si="0"/>
         <v>52794,</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="48" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="44" t="s">
         <v>436</v>
       </c>
-      <c r="B11" s="49">
+      <c r="B11" s="45">
         <v>7013</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="50" t="s">
+      <c r="E11" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="F11" s="49">
+      <c r="F11" s="45">
         <v>30971</v>
       </c>
-      <c r="G11" s="50" t="s">
+      <c r="G11" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="H11" s="52" t="s">
+      <c r="H11" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="I11" s="53" t="s">
+      <c r="I11" s="49" t="s">
         <v>361</v>
       </c>
-      <c r="J11" s="54" t="s">
+      <c r="J11" s="50" t="s">
         <v>387</v>
       </c>
-      <c r="K11" s="36" t="str">
+      <c r="K11" t="str">
         <f t="shared" si="0"/>
         <v>7013,</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="48" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="44" t="s">
         <v>436</v>
       </c>
-      <c r="B12" s="49">
+      <c r="B12" s="45">
         <v>6360</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="D12" s="51" t="s">
+      <c r="D12" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="E12" s="50" t="s">
+      <c r="E12" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="49">
+      <c r="F12" s="45">
         <v>39878</v>
       </c>
-      <c r="G12" s="50" t="s">
+      <c r="G12" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="H12" s="52" t="s">
+      <c r="H12" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="I12" s="53" t="s">
+      <c r="I12" s="49" t="s">
         <v>361</v>
       </c>
-      <c r="J12" s="54" t="s">
+      <c r="J12" s="50" t="s">
         <v>387</v>
       </c>
-      <c r="K12" s="36" t="str">
+      <c r="K12" t="str">
         <f t="shared" si="0"/>
         <v>6360,</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="48" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="44" t="s">
         <v>436</v>
       </c>
-      <c r="B13" s="49">
+      <c r="B13" s="45">
         <v>6042</v>
       </c>
-      <c r="C13" s="50" t="s">
+      <c r="C13" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="D13" s="51" t="s">
+      <c r="D13" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="E13" s="50" t="s">
+      <c r="E13" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="F13" s="49">
+      <c r="F13" s="45">
         <v>1120</v>
       </c>
-      <c r="G13" s="50" t="s">
+      <c r="G13" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="H13" s="52" t="s">
+      <c r="H13" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="I13" s="53" t="s">
+      <c r="I13" s="49" t="s">
         <v>361</v>
       </c>
-      <c r="J13" s="54" t="s">
+      <c r="J13" s="50" t="s">
         <v>387</v>
       </c>
-      <c r="K13" s="36" t="str">
+      <c r="K13" t="str">
         <f t="shared" si="0"/>
         <v>6042,</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="48" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="44" t="s">
         <v>436</v>
       </c>
-      <c r="B14" s="49">
+      <c r="B14" s="45">
         <v>6304</v>
       </c>
-      <c r="C14" s="50" t="s">
+      <c r="C14" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="51" t="s">
+      <c r="D14" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="E14" s="50" t="s">
+      <c r="E14" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="49">
+      <c r="F14" s="45">
         <v>1764</v>
       </c>
-      <c r="G14" s="50" t="s">
+      <c r="G14" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="H14" s="52" t="s">
+      <c r="H14" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="I14" s="53" t="s">
+      <c r="I14" s="49" t="s">
         <v>397</v>
       </c>
-      <c r="J14" s="54" t="s">
+      <c r="J14" s="50" t="s">
         <v>387</v>
       </c>
-      <c r="K14" s="36" t="str">
+      <c r="K14" t="str">
         <f t="shared" si="0"/>
         <v>6304,</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="48" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="44" t="s">
         <v>436</v>
       </c>
-      <c r="B15" s="49">
+      <c r="B15" s="45">
         <v>6334</v>
       </c>
-      <c r="C15" s="50" t="s">
+      <c r="C15" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="D15" s="51" t="s">
+      <c r="D15" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="E15" s="50" t="s">
+      <c r="E15" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="49">
+      <c r="F15" s="45">
         <v>1853</v>
       </c>
-      <c r="G15" s="50" t="s">
+      <c r="G15" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="H15" s="52" t="s">
+      <c r="H15" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="I15" s="53" t="s">
+      <c r="I15" s="49" t="s">
         <v>361</v>
       </c>
-      <c r="J15" s="54" t="s">
+      <c r="J15" s="50" t="s">
         <v>387</v>
       </c>
-      <c r="K15" s="36" t="str">
+      <c r="K15" t="str">
         <f t="shared" si="0"/>
         <v>6334,</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="48" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="44" t="s">
         <v>436</v>
       </c>
-      <c r="B16" s="49">
+      <c r="B16" s="45">
         <v>7008</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="51" t="s">
+      <c r="D16" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="E16" s="50" t="s">
+      <c r="E16" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="F16" s="49">
+      <c r="F16" s="45">
         <v>30971</v>
       </c>
-      <c r="G16" s="50" t="s">
+      <c r="G16" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="H16" s="52" t="s">
+      <c r="H16" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="I16" s="53" t="s">
+      <c r="I16" s="49" t="s">
         <v>361</v>
       </c>
-      <c r="J16" s="54" t="s">
+      <c r="J16" s="50" t="s">
         <v>387</v>
       </c>
-      <c r="K16" s="36" t="str">
+      <c r="K16" t="str">
         <f t="shared" si="0"/>
         <v>7008,</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="48" t="s">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="44" t="s">
         <v>436</v>
       </c>
-      <c r="B17" s="49">
+      <c r="B17" s="45">
         <v>7040</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="D17" s="51" t="s">
+      <c r="D17" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="E17" s="50" t="s">
+      <c r="E17" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="F17" s="49">
+      <c r="F17" s="45">
         <v>3320</v>
       </c>
-      <c r="G17" s="50" t="s">
+      <c r="G17" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="H17" s="52" t="s">
+      <c r="H17" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="I17" s="53" t="s">
+      <c r="I17" s="49" t="s">
         <v>361</v>
       </c>
-      <c r="J17" s="53" t="s">
+      <c r="J17" s="49" t="s">
         <v>361</v>
       </c>
-      <c r="K17" s="36" t="str">
+      <c r="K17" t="str">
         <f t="shared" si="0"/>
         <v>7040,</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="48" t="s">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="44" t="s">
         <v>436</v>
       </c>
-      <c r="B18" s="49">
+      <c r="B18" s="45">
         <v>6325</v>
       </c>
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="D18" s="51" t="s">
+      <c r="D18" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="E18" s="50" t="s">
+      <c r="E18" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="F18" s="49">
+      <c r="F18" s="45">
         <v>48943</v>
       </c>
-      <c r="G18" s="50" t="s">
+      <c r="G18" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="H18" s="52" t="s">
+      <c r="H18" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="I18" s="53" t="s">
+      <c r="I18" s="49" t="s">
         <v>361</v>
       </c>
-      <c r="J18" s="54" t="s">
+      <c r="J18" s="50" t="s">
         <v>387</v>
       </c>
-      <c r="K18" s="36" t="str">
+      <c r="K18" t="str">
         <f t="shared" si="0"/>
         <v>6325,</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="48" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="44" t="s">
         <v>436</v>
       </c>
-      <c r="B19" s="49">
+      <c r="B19" s="45">
         <v>6686</v>
       </c>
-      <c r="C19" s="50" t="s">
+      <c r="C19" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="D19" s="51" t="s">
+      <c r="D19" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="E19" s="50" t="s">
+      <c r="E19" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="F19" s="49">
+      <c r="F19" s="45">
         <v>21013</v>
       </c>
-      <c r="G19" s="50" t="s">
+      <c r="G19" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="H19" s="52" t="s">
+      <c r="H19" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="I19" s="53" t="s">
+      <c r="I19" s="49" t="s">
         <v>361</v>
       </c>
-      <c r="J19" s="54" t="s">
+      <c r="J19" s="50" t="s">
         <v>387</v>
       </c>
-      <c r="K19" s="36" t="str">
+      <c r="K19" t="str">
         <f t="shared" si="0"/>
         <v>6686,</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="57" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" s="53" t="s">
         <v>437</v>
       </c>
-      <c r="B20" s="58">
+      <c r="B20" s="54">
         <v>52129</v>
       </c>
-      <c r="C20" s="59" t="s">
+      <c r="C20" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="D20" s="60" t="s">
+      <c r="D20" s="56" t="s">
         <v>203</v>
       </c>
-      <c r="E20" s="59" t="s">
+      <c r="E20" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="F20" s="58">
+      <c r="F20" s="54">
         <v>40980</v>
       </c>
-      <c r="G20" s="59" t="s">
+      <c r="G20" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="H20" s="61" t="s">
+      <c r="H20" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="I20" s="53" t="s">
+      <c r="I20" s="49" t="s">
         <v>361</v>
       </c>
-      <c r="J20" s="54" t="s">
+      <c r="J20" s="50" t="s">
         <v>387</v>
       </c>
-      <c r="K20" s="36" t="str">
+      <c r="K20" t="str">
         <f t="shared" si="0"/>
         <v>52129,</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="57" t="s">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" s="53" t="s">
         <v>437</v>
       </c>
-      <c r="B21" s="58">
+      <c r="B21" s="54">
         <v>50864</v>
       </c>
-      <c r="C21" s="59" t="s">
+      <c r="C21" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="D21" s="60" t="s">
+      <c r="D21" s="56" t="s">
         <v>209</v>
       </c>
-      <c r="E21" s="59" t="s">
+      <c r="E21" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="F21" s="58">
+      <c r="F21" s="54">
         <v>41437</v>
       </c>
-      <c r="G21" s="59" t="s">
+      <c r="G21" s="55" t="s">
         <v>210</v>
       </c>
-      <c r="H21" s="61" t="s">
+      <c r="H21" s="57" t="s">
         <v>211</v>
       </c>
-      <c r="I21" s="53" t="s">
+      <c r="I21" s="49" t="s">
         <v>361</v>
       </c>
-      <c r="J21" s="54" t="s">
+      <c r="J21" s="50" t="s">
         <v>387</v>
       </c>
-      <c r="K21" s="36" t="str">
+      <c r="K21" t="str">
         <f t="shared" si="0"/>
         <v>50864,</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="57" t="s">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" s="53" t="s">
         <v>437</v>
       </c>
-      <c r="B22" s="58">
+      <c r="B22" s="54">
         <v>11586</v>
       </c>
-      <c r="C22" s="59" t="s">
+      <c r="C22" s="55" t="s">
         <v>214</v>
       </c>
-      <c r="D22" s="60" t="s">
+      <c r="D22" s="56" t="s">
         <v>213</v>
       </c>
-      <c r="E22" s="59" t="s">
+      <c r="E22" s="55" t="s">
         <v>215</v>
       </c>
-      <c r="F22" s="58">
+      <c r="F22" s="54">
         <v>29056</v>
       </c>
-      <c r="G22" s="59" t="s">
+      <c r="G22" s="55" t="s">
         <v>216</v>
       </c>
-      <c r="H22" s="61" t="s">
+      <c r="H22" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="I22" s="53" t="s">
+      <c r="I22" s="49" t="s">
         <v>361</v>
       </c>
-      <c r="J22" s="54" t="s">
+      <c r="J22" s="50" t="s">
         <v>387</v>
       </c>
-      <c r="K22" s="36" t="str">
+      <c r="K22" t="str">
         <f t="shared" si="0"/>
         <v>11586,</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="57" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" s="53" t="s">
         <v>437</v>
       </c>
-      <c r="B23" s="58">
+      <c r="B23" s="54">
         <v>348</v>
       </c>
-      <c r="C23" s="59" t="s">
+      <c r="C23" s="55" t="s">
         <v>220</v>
       </c>
-      <c r="D23" s="60" t="s">
+      <c r="D23" s="56" t="s">
         <v>219</v>
       </c>
-      <c r="E23" s="59" t="s">
+      <c r="E23" s="55" t="s">
         <v>215</v>
       </c>
-      <c r="F23" s="58">
+      <c r="F23" s="54">
         <v>39837</v>
       </c>
-      <c r="G23" s="59" t="s">
+      <c r="G23" s="55" t="s">
         <v>218</v>
       </c>
-      <c r="H23" s="61" t="s">
+      <c r="H23" s="57" t="s">
         <v>221</v>
       </c>
-      <c r="I23" s="53" t="s">
+      <c r="I23" s="49" t="s">
         <v>361</v>
       </c>
-      <c r="J23" s="54" t="s">
+      <c r="J23" s="50" t="s">
         <v>387</v>
       </c>
-      <c r="K23" s="36" t="str">
+      <c r="K23" t="str">
         <f t="shared" si="0"/>
         <v>348,</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="57" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" s="53" t="s">
         <v>437</v>
       </c>
-      <c r="B24" s="58">
+      <c r="B24" s="54">
         <v>938</v>
       </c>
-      <c r="C24" s="59" t="s">
+      <c r="C24" s="55" t="s">
         <v>224</v>
       </c>
-      <c r="D24" s="60" t="s">
+      <c r="D24" s="56" t="s">
         <v>223</v>
       </c>
-      <c r="E24" s="59" t="s">
+      <c r="E24" s="55" t="s">
         <v>215</v>
       </c>
-      <c r="F24" s="58">
+      <c r="F24" s="54">
         <v>8412</v>
       </c>
-      <c r="G24" s="59" t="s">
+      <c r="G24" s="55" t="s">
         <v>225</v>
       </c>
-      <c r="H24" s="61" t="s">
+      <c r="H24" s="57" t="s">
         <v>226</v>
       </c>
-      <c r="I24" s="53" t="s">
+      <c r="I24" s="49" t="s">
         <v>361</v>
       </c>
-      <c r="J24" s="54" t="s">
+      <c r="J24" s="50" t="s">
         <v>387</v>
       </c>
-      <c r="K24" s="36" t="str">
+      <c r="K24" t="str">
         <f t="shared" si="0"/>
         <v>938,</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="62" t="s">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" s="58" t="s">
         <v>438</v>
       </c>
-      <c r="B25" s="63">
+      <c r="B25" s="59">
         <v>6861</v>
       </c>
-      <c r="C25" s="64" t="s">
+      <c r="C25" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="D25" s="65" t="s">
+      <c r="D25" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="E25" s="64" t="s">
+      <c r="E25" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="F25" s="63">
+      <c r="F25" s="59">
         <v>2107</v>
       </c>
-      <c r="G25" s="64" t="s">
+      <c r="G25" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="H25" s="66" t="s">
+      <c r="H25" s="62" t="s">
         <v>122</v>
       </c>
-      <c r="I25" s="53" t="s">
+      <c r="I25" s="49" t="s">
         <v>361</v>
       </c>
-      <c r="J25" s="72" t="s">
+      <c r="J25" s="68" t="s">
         <v>442</v>
       </c>
-      <c r="K25" s="36" t="str">
+      <c r="K25" t="str">
         <f t="shared" si="0"/>
         <v>6861,</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="62" t="s">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26" s="58" t="s">
         <v>438</v>
       </c>
-      <c r="B26" s="63">
+      <c r="B26" s="59">
         <v>6541</v>
       </c>
-      <c r="C26" s="64" t="s">
+      <c r="C26" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="D26" s="65" t="s">
+      <c r="D26" s="61" t="s">
         <v>123</v>
       </c>
-      <c r="E26" s="64" t="s">
+      <c r="E26" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="F26" s="63">
+      <c r="F26" s="59">
         <v>42207</v>
       </c>
-      <c r="G26" s="64" t="s">
+      <c r="G26" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="H26" s="66" t="s">
+      <c r="H26" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="I26" s="53" t="s">
+      <c r="I26" s="49" t="s">
         <v>361</v>
       </c>
-      <c r="J26" s="72" t="s">
+      <c r="J26" s="68" t="s">
         <v>442</v>
       </c>
-      <c r="K26" s="36" t="str">
+      <c r="K26" t="str">
         <f t="shared" si="0"/>
         <v>6541,</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="62" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27" s="58" t="s">
         <v>438</v>
       </c>
-      <c r="B27" s="63">
+      <c r="B27" s="59">
         <v>7056</v>
       </c>
-      <c r="C27" s="64" t="s">
+      <c r="C27" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="D27" s="65" t="s">
+      <c r="D27" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="E27" s="64" t="s">
+      <c r="E27" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="F27" s="63">
+      <c r="F27" s="59">
         <v>8038</v>
       </c>
-      <c r="G27" s="64" t="s">
+      <c r="G27" s="60" t="s">
         <v>129</v>
       </c>
-      <c r="H27" s="66" t="s">
+      <c r="H27" s="62" t="s">
         <v>130</v>
       </c>
-      <c r="I27" s="53" t="s">
+      <c r="I27" s="49" t="s">
         <v>361</v>
       </c>
-      <c r="J27" s="72" t="s">
+      <c r="J27" s="68" t="s">
         <v>442</v>
       </c>
-      <c r="K27" s="36" t="str">
+      <c r="K27" t="str">
         <f t="shared" si="0"/>
         <v>7056,</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="62" t="s">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A28" s="58" t="s">
         <v>438</v>
       </c>
-      <c r="B28" s="63">
+      <c r="B28" s="59">
         <v>13738</v>
       </c>
-      <c r="C28" s="64" t="s">
+      <c r="C28" s="60" t="s">
         <v>199</v>
       </c>
-      <c r="D28" s="65" t="s">
+      <c r="D28" s="61" t="s">
         <v>197</v>
       </c>
-      <c r="E28" s="64" t="s">
+      <c r="E28" s="60" t="s">
         <v>198</v>
       </c>
-      <c r="F28" s="63">
+      <c r="F28" s="59">
         <v>34779</v>
       </c>
-      <c r="G28" s="64" t="s">
+      <c r="G28" s="60" t="s">
         <v>196</v>
       </c>
-      <c r="H28" s="66" t="s">
+      <c r="H28" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="53" t="s">
+      <c r="I28" s="49" t="s">
         <v>361</v>
       </c>
-      <c r="J28" s="72" t="s">
+      <c r="J28" s="68" t="s">
         <v>442</v>
       </c>
-      <c r="K28" s="36" t="str">
+      <c r="K28" t="str">
         <f t="shared" si="0"/>
         <v>13738,</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="62" t="s">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A29" s="58" t="s">
         <v>439</v>
       </c>
-      <c r="B29" s="63">
+      <c r="B29" s="59">
         <v>6327</v>
       </c>
-      <c r="C29" s="64" t="s">
+      <c r="C29" s="60" t="s">
         <v>133</v>
       </c>
-      <c r="D29" s="65" t="s">
+      <c r="D29" s="61" t="s">
         <v>132</v>
       </c>
-      <c r="E29" s="64" t="s">
+      <c r="E29" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="F29" s="63">
+      <c r="F29" s="59">
         <v>2108</v>
       </c>
-      <c r="G29" s="64" t="s">
+      <c r="G29" s="60" t="s">
         <v>134</v>
       </c>
-      <c r="H29" s="66" t="s">
+      <c r="H29" s="62" t="s">
         <v>135</v>
       </c>
-      <c r="I29" s="53" t="s">
+      <c r="I29" s="49" t="s">
         <v>361</v>
       </c>
-      <c r="J29" s="72" t="s">
+      <c r="J29" s="68" t="s">
         <v>442</v>
       </c>
-      <c r="K29" s="36" t="str">
+      <c r="K29" t="str">
         <f t="shared" si="0"/>
         <v>6327,</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="62" t="s">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A30" s="58" t="s">
         <v>440</v>
       </c>
-      <c r="B30" s="63">
+      <c r="B30" s="59">
         <v>7085</v>
       </c>
-      <c r="C30" s="64" t="s">
+      <c r="C30" s="60" t="s">
         <v>139</v>
       </c>
-      <c r="D30" s="65" t="s">
+      <c r="D30" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="E30" s="64" t="s">
+      <c r="E30" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="F30" s="63">
+      <c r="F30" s="59">
         <v>49088</v>
       </c>
-      <c r="G30" s="64" t="s">
+      <c r="G30" s="60" t="s">
         <v>141</v>
       </c>
-      <c r="H30" s="66" t="s">
+      <c r="H30" s="62" t="s">
         <v>142</v>
       </c>
-      <c r="I30" s="53" t="s">
+      <c r="I30" s="49" t="s">
         <v>361</v>
       </c>
-      <c r="J30" s="72" t="s">
+      <c r="J30" s="68" t="s">
         <v>442</v>
       </c>
-      <c r="K30" s="36" t="str">
+      <c r="K30" t="str">
         <f t="shared" si="0"/>
         <v>7085,</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="62" t="s">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A31" s="58" t="s">
         <v>440</v>
       </c>
-      <c r="B31" s="63">
+      <c r="B31" s="59">
         <v>6424</v>
       </c>
-      <c r="C31" s="64" t="s">
+      <c r="C31" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="D31" s="65" t="s">
+      <c r="D31" s="61" t="s">
         <v>143</v>
       </c>
-      <c r="E31" s="64" t="s">
+      <c r="E31" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="F31" s="63">
+      <c r="F31" s="59">
         <v>50178</v>
       </c>
-      <c r="G31" s="64" t="s">
+      <c r="G31" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="H31" s="66" t="s">
+      <c r="H31" s="62" t="s">
         <v>146</v>
       </c>
-      <c r="I31" s="53" t="s">
+      <c r="I31" s="49" t="s">
         <v>361</v>
       </c>
-      <c r="J31" s="72" t="s">
+      <c r="J31" s="68" t="s">
         <v>442</v>
       </c>
-      <c r="K31" s="36" t="str">
+      <c r="K31" t="str">
         <f t="shared" si="0"/>
         <v>6424,</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="62" t="s">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A32" s="58" t="s">
         <v>440</v>
       </c>
-      <c r="B32" s="63">
+      <c r="B32" s="59">
         <v>6094</v>
       </c>
-      <c r="C32" s="64" t="s">
+      <c r="C32" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="D32" s="65" t="s">
+      <c r="D32" s="61" t="s">
         <v>147</v>
       </c>
-      <c r="E32" s="64" t="s">
+      <c r="E32" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="F32" s="63">
+      <c r="F32" s="59">
         <v>16004</v>
       </c>
-      <c r="G32" s="64" t="s">
+      <c r="G32" s="60" t="s">
         <v>150</v>
       </c>
-      <c r="H32" s="66" t="s">
+      <c r="H32" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="I32" s="53" t="s">
+      <c r="I32" s="49" t="s">
         <v>361</v>
       </c>
-      <c r="J32" s="72" t="s">
+      <c r="J32" s="68" t="s">
         <v>442</v>
       </c>
-      <c r="K32" s="36" t="str">
+      <c r="K32" t="str">
         <f t="shared" si="0"/>
         <v>6094,</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="62" t="s">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A33" s="58" t="s">
         <v>440</v>
       </c>
-      <c r="B33" s="63">
+      <c r="B33" s="59">
         <v>6329</v>
       </c>
-      <c r="C33" s="64" t="s">
+      <c r="C33" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="65" t="s">
+      <c r="D33" s="61" t="s">
         <v>152</v>
       </c>
-      <c r="E33" s="64" t="s">
+      <c r="E33" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="F33" s="63">
+      <c r="F33" s="59">
         <v>42473</v>
       </c>
-      <c r="G33" s="64" t="s">
+      <c r="G33" s="60" t="s">
         <v>153</v>
       </c>
-      <c r="H33" s="66" t="s">
+      <c r="H33" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="I33" s="53" t="s">
+      <c r="I33" s="49" t="s">
         <v>361</v>
       </c>
-      <c r="J33" s="72" t="s">
+      <c r="J33" s="68" t="s">
         <v>442</v>
       </c>
-      <c r="K33" s="36" t="str">
+      <c r="K33" t="str">
         <f t="shared" si="0"/>
         <v>6329,</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="62" t="s">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A34" s="58" t="s">
         <v>440</v>
       </c>
-      <c r="B34" s="63">
+      <c r="B34" s="59">
         <v>6895</v>
       </c>
-      <c r="C34" s="64" t="s">
+      <c r="C34" s="60" t="s">
         <v>157</v>
       </c>
-      <c r="D34" s="65" t="s">
+      <c r="D34" s="61" t="s">
         <v>155</v>
       </c>
-      <c r="E34" s="64" t="s">
+      <c r="E34" s="60" t="s">
         <v>156</v>
       </c>
-      <c r="F34" s="63">
+      <c r="F34" s="59">
         <v>205493</v>
       </c>
-      <c r="G34" s="64" t="s">
+      <c r="G34" s="60" t="s">
         <v>158</v>
       </c>
-      <c r="H34" s="66" t="s">
+      <c r="H34" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="I34" s="53" t="s">
+      <c r="I34" s="49" t="s">
         <v>361</v>
       </c>
-      <c r="J34" s="72" t="s">
+      <c r="J34" s="68" t="s">
         <v>442</v>
       </c>
-      <c r="K34" s="36" t="str">
+      <c r="K34" t="str">
         <f t="shared" si="0"/>
         <v>6895,</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="62" t="s">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A35" s="58" t="s">
         <v>440</v>
       </c>
-      <c r="B35" s="63">
+      <c r="B35" s="59">
         <v>6316</v>
       </c>
-      <c r="C35" s="64" t="s">
+      <c r="C35" s="60" t="s">
         <v>162</v>
       </c>
-      <c r="D35" s="65" t="s">
+      <c r="D35" s="61" t="s">
         <v>160</v>
       </c>
-      <c r="E35" s="64" t="s">
+      <c r="E35" s="60" t="s">
         <v>161</v>
       </c>
-      <c r="F35" s="63">
+      <c r="F35" s="59">
         <v>12779</v>
       </c>
-      <c r="G35" s="64" t="s">
+      <c r="G35" s="60" t="s">
         <v>163</v>
       </c>
-      <c r="H35" s="66" t="s">
+      <c r="H35" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="I35" s="53" t="s">
+      <c r="I35" s="49" t="s">
         <v>361</v>
       </c>
-      <c r="J35" s="72" t="s">
+      <c r="J35" s="68" t="s">
         <v>442</v>
       </c>
-      <c r="K35" s="36" t="str">
+      <c r="K35" t="str">
         <f t="shared" si="0"/>
         <v>6316,</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="62" t="s">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A36" s="58" t="s">
         <v>440</v>
       </c>
-      <c r="B36" s="63">
+      <c r="B36" s="59">
         <v>6767</v>
       </c>
-      <c r="C36" s="64" t="s">
+      <c r="C36" s="60" t="s">
         <v>166</v>
       </c>
-      <c r="D36" s="65" t="s">
+      <c r="D36" s="61" t="s">
         <v>165</v>
       </c>
-      <c r="E36" s="64" t="s">
+      <c r="E36" s="60" t="s">
         <v>161</v>
       </c>
-      <c r="F36" s="63">
+      <c r="F36" s="59">
         <v>41364</v>
       </c>
-      <c r="G36" s="64" t="s">
+      <c r="G36" s="60" t="s">
         <v>167</v>
       </c>
-      <c r="H36" s="66" t="s">
+      <c r="H36" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="I36" s="53" t="s">
+      <c r="I36" s="49" t="s">
         <v>361</v>
       </c>
-      <c r="J36" s="72" t="s">
+      <c r="J36" s="68" t="s">
         <v>442</v>
       </c>
-      <c r="K36" s="36" t="str">
+      <c r="K36" t="str">
         <f t="shared" si="0"/>
         <v>6767,</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="67" t="s">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A37" s="63" t="s">
         <v>441</v>
       </c>
-      <c r="B37" s="68">
+      <c r="B37" s="64">
         <v>55566</v>
       </c>
-      <c r="C37" s="69" t="s">
+      <c r="C37" s="65" t="s">
         <v>175</v>
       </c>
-      <c r="D37" s="70" t="s">
+      <c r="D37" s="66" t="s">
         <v>174</v>
       </c>
-      <c r="E37" s="69" t="s">
+      <c r="E37" s="65" t="s">
         <v>173</v>
       </c>
-      <c r="F37" s="68">
+      <c r="F37" s="64">
         <v>209987</v>
       </c>
-      <c r="G37" s="69" t="s">
+      <c r="G37" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="H37" s="71" t="s">
+      <c r="H37" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="I37" s="53" t="s">
+      <c r="I37" s="49" t="s">
         <v>361</v>
       </c>
-      <c r="J37" s="72" t="s">
+      <c r="J37" s="68" t="s">
         <v>442</v>
       </c>
-      <c r="K37" s="36" t="str">
+      <c r="K37" t="str">
         <f t="shared" si="0"/>
         <v>55566,</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="67" t="s">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A38" s="63" t="s">
         <v>441</v>
       </c>
-      <c r="B38" s="68">
+      <c r="B38" s="64">
         <v>54863</v>
       </c>
-      <c r="C38" s="69" t="s">
+      <c r="C38" s="65" t="s">
         <v>178</v>
       </c>
-      <c r="D38" s="70" t="s">
+      <c r="D38" s="66" t="s">
         <v>177</v>
       </c>
-      <c r="E38" s="69" t="s">
+      <c r="E38" s="65" t="s">
         <v>176</v>
       </c>
-      <c r="F38" s="68">
+      <c r="F38" s="64">
         <v>49367</v>
       </c>
-      <c r="G38" s="69" t="s">
+      <c r="G38" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="H38" s="71" t="s">
+      <c r="H38" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="I38" s="53" t="s">
+      <c r="I38" s="49" t="s">
         <v>361</v>
       </c>
-      <c r="J38" s="72" t="s">
+      <c r="J38" s="68" t="s">
         <v>442</v>
       </c>
-      <c r="K38" s="36" t="str">
+      <c r="K38" t="str">
         <f t="shared" si="0"/>
         <v>54863,</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="67" t="s">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A39" s="63" t="s">
         <v>441</v>
       </c>
-      <c r="B39" s="68">
+      <c r="B39" s="64">
         <v>974</v>
       </c>
-      <c r="C39" s="69" t="s">
+      <c r="C39" s="65" t="s">
         <v>185</v>
       </c>
-      <c r="D39" s="70" t="s">
+      <c r="D39" s="66" t="s">
         <v>181</v>
       </c>
-      <c r="E39" s="69" t="s">
+      <c r="E39" s="65" t="s">
         <v>182</v>
       </c>
-      <c r="F39" s="68">
+      <c r="F39" s="64">
         <v>3269</v>
       </c>
-      <c r="G39" s="69" t="s">
+      <c r="G39" s="65" t="s">
         <v>183</v>
       </c>
-      <c r="H39" s="71" t="s">
+      <c r="H39" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="I39" s="53" t="s">
+      <c r="I39" s="49" t="s">
         <v>361</v>
       </c>
-      <c r="J39" s="72" t="s">
+      <c r="J39" s="68" t="s">
         <v>442</v>
       </c>
-      <c r="K39" s="36" t="str">
+      <c r="K39" t="str">
         <f t="shared" si="0"/>
         <v>974,</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="67" t="s">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A40" s="63" t="s">
         <v>441</v>
       </c>
-      <c r="B40" s="68">
+      <c r="B40" s="64">
         <v>51216</v>
       </c>
-      <c r="C40" s="69" t="s">
+      <c r="C40" s="65" t="s">
         <v>187</v>
       </c>
-      <c r="D40" s="70" t="s">
+      <c r="D40" s="66" t="s">
         <v>186</v>
       </c>
-      <c r="E40" s="69" t="s">
+      <c r="E40" s="65" t="s">
         <v>188</v>
       </c>
-      <c r="F40" s="68">
+      <c r="F40" s="64">
         <v>200761</v>
       </c>
-      <c r="G40" s="69" t="s">
+      <c r="G40" s="65" t="s">
         <v>189</v>
       </c>
-      <c r="H40" s="71" t="s">
+      <c r="H40" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="I40" s="53" t="s">
+      <c r="I40" s="49" t="s">
         <v>361</v>
       </c>
-      <c r="J40" s="72" t="s">
+      <c r="J40" s="68" t="s">
         <v>442</v>
       </c>
-      <c r="K40" s="36" t="str">
+      <c r="K40" t="str">
         <f t="shared" si="0"/>
         <v>51216,</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="67" t="s">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A41" s="63" t="s">
         <v>441</v>
       </c>
-      <c r="B41" s="68">
+      <c r="B41" s="64">
         <v>55043</v>
       </c>
-      <c r="C41" s="69" t="s">
+      <c r="C41" s="65" t="s">
         <v>194</v>
       </c>
-      <c r="D41" s="70" t="s">
+      <c r="D41" s="66" t="s">
         <v>192</v>
       </c>
-      <c r="E41" s="69" t="s">
+      <c r="E41" s="65" t="s">
         <v>191</v>
       </c>
-      <c r="F41" s="68">
+      <c r="F41" s="64">
         <v>209137</v>
       </c>
-      <c r="G41" s="69" t="s">
+      <c r="G41" s="65" t="s">
         <v>193</v>
       </c>
-      <c r="H41" s="71" t="s">
+      <c r="H41" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="I41" s="53" t="s">
+      <c r="I41" s="49" t="s">
         <v>361</v>
       </c>
-      <c r="J41" s="72" t="s">
+      <c r="J41" s="68" t="s">
         <v>442</v>
       </c>
-      <c r="K41" s="36" t="str">
+      <c r="K41" t="str">
         <f t="shared" si="0"/>
         <v>55043,</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="67" t="s">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A42" s="63" t="s">
         <v>441</v>
       </c>
-      <c r="B42" s="68">
+      <c r="B42" s="64">
         <v>28083</v>
       </c>
-      <c r="C42" s="69" t="s">
+      <c r="C42" s="65" t="s">
         <v>229</v>
       </c>
-      <c r="D42" s="70" t="s">
+      <c r="D42" s="66" t="s">
         <v>227</v>
       </c>
-      <c r="E42" s="69" t="s">
+      <c r="E42" s="65" t="s">
         <v>228</v>
       </c>
-      <c r="F42" s="68">
+      <c r="F42" s="64">
         <v>30722</v>
       </c>
-      <c r="G42" s="69" t="s">
+      <c r="G42" s="65" t="s">
         <v>230</v>
       </c>
-      <c r="H42" s="71" t="s">
+      <c r="H42" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="I42" s="53" t="s">
+      <c r="I42" s="49" t="s">
         <v>361</v>
       </c>
-      <c r="J42" s="72" t="s">
+      <c r="J42" s="68" t="s">
         <v>442</v>
       </c>
-      <c r="K42" s="36" t="str">
+      <c r="K42" t="str">
         <f t="shared" si="0"/>
         <v>28083,</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="67" t="s">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A43" s="63" t="s">
         <v>441</v>
       </c>
-      <c r="B43" s="68">
+      <c r="B43" s="64">
         <v>44</v>
       </c>
-      <c r="C43" s="69" t="s">
+      <c r="C43" s="65" t="s">
         <v>232</v>
       </c>
-      <c r="D43" s="70" t="s">
+      <c r="D43" s="66" t="s">
         <v>231</v>
       </c>
-      <c r="E43" s="69" t="s">
+      <c r="E43" s="65" t="s">
         <v>233</v>
       </c>
-      <c r="F43" s="68">
+      <c r="F43" s="64">
         <v>60432</v>
       </c>
-      <c r="G43" s="69" t="s">
+      <c r="G43" s="65" t="s">
         <v>234</v>
       </c>
-      <c r="H43" s="71" t="s">
+      <c r="H43" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="I43" s="53" t="s">
+      <c r="I43" s="49" t="s">
         <v>361</v>
       </c>
-      <c r="J43" s="72" t="s">
+      <c r="J43" s="68" t="s">
         <v>442</v>
       </c>
-      <c r="K43" s="36" t="str">
+      <c r="K43" t="str">
         <f t="shared" si="0"/>
         <v>44,</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="67" t="s">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A44" s="63" t="s">
         <v>441</v>
       </c>
-      <c r="B44" s="68">
+      <c r="B44" s="64">
         <v>1003272</v>
       </c>
-      <c r="C44" s="69" t="s">
+      <c r="C44" s="65" t="s">
         <v>236</v>
       </c>
-      <c r="D44" s="70" t="s">
+      <c r="D44" s="66" t="s">
         <v>235</v>
       </c>
-      <c r="E44" s="69" t="s">
+      <c r="E44" s="65" t="s">
         <v>233</v>
       </c>
-      <c r="F44" s="68">
+      <c r="F44" s="64">
         <v>29447</v>
       </c>
-      <c r="G44" s="69" t="s">
+      <c r="G44" s="65" t="s">
         <v>237</v>
       </c>
-      <c r="H44" s="71" t="s">
+      <c r="H44" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="I44" s="53" t="s">
+      <c r="I44" s="49" t="s">
         <v>361</v>
       </c>
-      <c r="J44" s="72" t="s">
+      <c r="J44" s="68" t="s">
         <v>442</v>
       </c>
-      <c r="K44" s="36" t="str">
+      <c r="K44" t="str">
         <f t="shared" si="0"/>
         <v>1003272,</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="67" t="s">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A45" s="63" t="s">
         <v>441</v>
       </c>
-      <c r="B45" s="68">
+      <c r="B45" s="64">
         <v>31106</v>
       </c>
-      <c r="C45" s="69" t="s">
+      <c r="C45" s="65" t="s">
         <v>239</v>
       </c>
-      <c r="D45" s="70" t="s">
+      <c r="D45" s="66" t="s">
         <v>238</v>
       </c>
-      <c r="E45" s="69" t="s">
+      <c r="E45" s="65" t="s">
         <v>233</v>
       </c>
-      <c r="F45" s="68">
+      <c r="F45" s="64">
         <v>1267</v>
       </c>
-      <c r="G45" s="69" t="s">
+      <c r="G45" s="65" t="s">
         <v>240</v>
       </c>
-      <c r="H45" s="71" t="s">
+      <c r="H45" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="I45" s="53" t="s">
+      <c r="I45" s="49" t="s">
         <v>361</v>
       </c>
-      <c r="J45" s="72" t="s">
+      <c r="J45" s="68" t="s">
         <v>442</v>
       </c>
-      <c r="K45" s="36" t="str">
+      <c r="K45" t="str">
         <f t="shared" si="0"/>
         <v>31106,</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="67" t="s">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A46" s="63" t="s">
         <v>441</v>
       </c>
-      <c r="B46" s="68">
+      <c r="B46" s="64">
         <v>1003271</v>
       </c>
-      <c r="C46" s="69" t="s">
+      <c r="C46" s="65" t="s">
         <v>245</v>
       </c>
-      <c r="D46" s="70" t="s">
+      <c r="D46" s="66" t="s">
         <v>241</v>
       </c>
-      <c r="E46" s="69" t="s">
+      <c r="E46" s="65" t="s">
         <v>242</v>
       </c>
-      <c r="F46" s="68">
+      <c r="F46" s="64">
         <v>12874</v>
       </c>
-      <c r="G46" s="69" t="s">
+      <c r="G46" s="65" t="s">
         <v>243</v>
       </c>
-      <c r="H46" s="71" t="s">
+      <c r="H46" s="67" t="s">
         <v>244</v>
       </c>
-      <c r="I46" s="53" t="s">
+      <c r="I46" s="49" t="s">
         <v>361</v>
       </c>
-      <c r="J46" s="72" t="s">
+      <c r="J46" s="68" t="s">
         <v>442</v>
       </c>
-      <c r="K46" s="36" t="str">
+      <c r="K46" t="str">
         <f t="shared" si="0"/>
         <v>1003271,</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="67" t="s">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A47" s="63" t="s">
         <v>441</v>
       </c>
-      <c r="B47" s="68">
+      <c r="B47" s="64">
         <v>22358</v>
       </c>
-      <c r="C47" s="69" t="s">
+      <c r="C47" s="65" t="s">
         <v>239</v>
       </c>
-      <c r="D47" s="70" t="s">
+      <c r="D47" s="66" t="s">
         <v>247</v>
       </c>
-      <c r="E47" s="69" t="s">
+      <c r="E47" s="65" t="s">
         <v>248</v>
       </c>
-      <c r="F47" s="68">
+      <c r="F47" s="64">
         <v>1267</v>
       </c>
-      <c r="G47" s="69" t="s">
+      <c r="G47" s="65" t="s">
         <v>249</v>
       </c>
-      <c r="H47" s="71" t="s">
+      <c r="H47" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="I47" s="53" t="s">
+      <c r="I47" s="49" t="s">
         <v>361</v>
       </c>
-      <c r="J47" s="72" t="s">
+      <c r="J47" s="68" t="s">
         <v>442</v>
       </c>
-      <c r="K47" s="36" t="str">
+      <c r="K47" t="str">
         <f t="shared" si="0"/>
         <v>22358,</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="67" t="s">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A48" s="63" t="s">
         <v>441</v>
       </c>
-      <c r="B48" s="68">
+      <c r="B48" s="64">
         <v>32701</v>
       </c>
-      <c r="C48" s="69" t="s">
+      <c r="C48" s="65" t="s">
         <v>185</v>
       </c>
-      <c r="D48" s="70" t="s">
+      <c r="D48" s="66" t="s">
         <v>250</v>
       </c>
-      <c r="E48" s="69" t="s">
+      <c r="E48" s="65" t="s">
         <v>248</v>
       </c>
-      <c r="F48" s="68">
+      <c r="F48" s="64">
         <v>3269</v>
       </c>
-      <c r="G48" s="69" t="s">
+      <c r="G48" s="65" t="s">
         <v>251</v>
       </c>
-      <c r="H48" s="71" t="s">
+      <c r="H48" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="I48" s="53" t="s">
+      <c r="I48" s="49" t="s">
         <v>361</v>
       </c>
-      <c r="J48" s="72" t="s">
+      <c r="J48" s="68" t="s">
         <v>442</v>
       </c>
-      <c r="K48" s="36" t="str">
+      <c r="K48" t="str">
         <f>CONCATENATE(B48)</f>
         <v>32701</v>
       </c>
@@ -8616,1108 +8599,1414 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="1">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" customWidth="1"/>
-    <col min="9" max="9" width="3.28515625" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="8.7109375" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" customWidth="1"/>
-    <col min="17" max="17" width="12.140625" customWidth="1"/>
-    <col min="18" max="22" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.453125" customWidth="1"/>
+    <col min="3" max="3" width="24.7265625" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" customWidth="1"/>
+    <col min="6" max="6" width="12.7265625" customWidth="1"/>
+    <col min="7" max="7" width="10.7265625" customWidth="1"/>
+    <col min="8" max="9" width="9.81640625" customWidth="1"/>
+    <col min="10" max="10" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.81640625" customWidth="1"/>
+    <col min="12" max="12" width="9.54296875" customWidth="1"/>
+    <col min="13" max="13" width="11.1796875" customWidth="1"/>
+    <col min="14" max="14" width="10.08984375" customWidth="1"/>
+    <col min="15" max="15" width="10.36328125" customWidth="1"/>
+    <col min="16" max="16" width="9.7265625" customWidth="1"/>
+    <col min="17" max="17" width="9.81640625" customWidth="1"/>
+    <col min="18" max="18" width="12.453125" customWidth="1"/>
+    <col min="19" max="19" width="12.1796875" customWidth="1"/>
+    <col min="20" max="24" width="6.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="108" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>500</v>
       </c>
       <c r="B1" t="s">
         <v>499</v>
       </c>
-      <c r="C1" s="84"/>
-      <c r="D1" s="85" t="s">
+      <c r="C1" s="80"/>
+      <c r="D1" s="81" t="s">
         <v>408</v>
       </c>
-      <c r="E1" s="85" t="s">
+      <c r="E1" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="85" t="s">
+      <c r="F1" s="81" t="s">
         <v>501</v>
       </c>
-      <c r="G1" s="85" t="s">
+      <c r="G1" s="81" t="s">
         <v>414</v>
       </c>
-      <c r="H1" s="85" t="s">
+      <c r="H1" s="81" t="s">
         <v>417</v>
       </c>
-      <c r="I1" s="85" t="s">
-        <v>388</v>
-      </c>
-      <c r="J1" s="85" t="s">
+      <c r="I1" s="81" t="s">
         <v>503</v>
       </c>
-      <c r="K1" s="85" t="s">
+      <c r="J1" s="81" t="s">
         <v>504</v>
       </c>
-      <c r="L1" s="85" t="s">
+      <c r="K1" s="81" t="s">
+        <v>519</v>
+      </c>
+      <c r="L1" s="81" t="s">
+        <v>520</v>
+      </c>
+      <c r="M1" s="81" t="s">
+        <v>521</v>
+      </c>
+      <c r="N1" s="81" t="s">
         <v>509</v>
       </c>
-      <c r="M1" s="85" t="s">
+      <c r="O1" s="81" t="s">
         <v>510</v>
       </c>
-      <c r="N1" s="85" t="s">
+      <c r="P1" s="81" t="s">
         <v>511</v>
       </c>
-      <c r="O1" s="87" t="s">
+      <c r="Q1" s="82" t="s">
         <v>512</v>
       </c>
-      <c r="P1" s="85" t="s">
+      <c r="R1" s="81" t="s">
         <v>515</v>
       </c>
-      <c r="Q1" s="85" t="s">
+      <c r="S1" s="81" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A2" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="86">
+      <c r="B2" s="51">
         <v>1111</v>
       </c>
       <c r="C2" t="s">
         <v>408</v>
       </c>
-      <c r="D2" s="94">
+      <c r="D2" s="89">
         <v>0</v>
       </c>
-      <c r="E2" s="95">
+      <c r="E2" s="90">
         <v>42485578</v>
       </c>
-      <c r="F2" s="94">
+      <c r="F2" s="89">
         <v>42469266</v>
       </c>
-      <c r="G2" s="94">
+      <c r="G2" s="89">
         <v>42487200</v>
       </c>
-      <c r="H2" s="94">
+      <c r="H2" s="89">
         <v>42471893</v>
       </c>
-      <c r="I2" s="94">
-        <v>0</v>
-      </c>
-      <c r="J2" s="94">
+      <c r="I2" s="89">
         <v>42472176</v>
       </c>
-      <c r="K2" s="94">
+      <c r="J2" s="89">
         <v>42473340</v>
       </c>
-      <c r="L2" s="94">
+      <c r="K2" s="89">
+        <v>57510513</v>
+      </c>
+      <c r="L2" s="89">
+        <v>57510179</v>
+      </c>
+      <c r="M2" s="89">
+        <v>57510807</v>
+      </c>
+      <c r="N2" s="89">
         <v>42474056</v>
       </c>
-      <c r="M2" s="94">
+      <c r="O2" s="89">
         <v>42484789</v>
       </c>
-      <c r="N2" s="94">
+      <c r="P2" s="89">
         <v>42484915</v>
       </c>
-      <c r="O2" s="94">
+      <c r="Q2" s="89">
         <v>42485089</v>
       </c>
-      <c r="P2" s="94">
+      <c r="R2" s="89">
         <v>42485224</v>
       </c>
-      <c r="Q2" s="94">
+      <c r="S2" s="89">
         <v>42485435</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="88">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A3" s="83">
         <v>178255156202</v>
       </c>
-      <c r="B3" s="86">
+      <c r="B3" s="51">
         <v>47147</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="96">
+      <c r="D3" s="89">
         <v>42414621</v>
       </c>
-      <c r="E3" s="94">
+      <c r="E3" s="89">
         <v>0</v>
       </c>
-      <c r="F3" s="94">
+      <c r="F3" s="89">
         <v>42469380</v>
       </c>
-      <c r="G3" s="94">
+      <c r="G3" s="89">
         <v>42487239</v>
       </c>
-      <c r="H3" s="94">
+      <c r="H3" s="89">
         <v>42471894</v>
       </c>
-      <c r="I3" s="94">
-        <v>0</v>
-      </c>
-      <c r="J3" s="94">
+      <c r="I3" s="89">
         <v>42472179</v>
       </c>
-      <c r="K3" s="94">
+      <c r="J3" s="89">
         <v>42473344</v>
       </c>
-      <c r="L3" s="94">
+      <c r="K3" s="89">
+        <v>57510514</v>
+      </c>
+      <c r="L3" s="89">
+        <v>57510180</v>
+      </c>
+      <c r="M3" s="89">
+        <v>57510808</v>
+      </c>
+      <c r="N3" s="89">
         <v>42474220</v>
       </c>
-      <c r="M3" s="94">
+      <c r="O3" s="89">
         <v>42484809</v>
       </c>
-      <c r="N3" s="94">
+      <c r="P3" s="89">
         <v>42484919</v>
       </c>
-      <c r="O3" s="94">
+      <c r="Q3" s="89">
         <v>42485090</v>
       </c>
-      <c r="P3" s="94">
+      <c r="R3" s="89">
         <v>42485231</v>
       </c>
-      <c r="Q3" s="94">
+      <c r="S3" s="89">
         <v>42485441</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="89" t="s">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A4" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="86">
+      <c r="B4" s="51">
         <v>61098</v>
       </c>
       <c r="C4" t="s">
         <v>502</v>
       </c>
-      <c r="D4" s="96">
+      <c r="D4" s="89">
         <v>42414624</v>
       </c>
-      <c r="E4" s="94">
+      <c r="E4" s="89">
         <v>42485580</v>
       </c>
-      <c r="F4" s="94">
+      <c r="F4" s="89">
         <v>0</v>
       </c>
-      <c r="G4" s="94">
+      <c r="G4" s="89">
         <v>42487261</v>
       </c>
-      <c r="H4" s="94">
+      <c r="H4" s="89">
         <v>42471895</v>
       </c>
-      <c r="I4" s="94">
-        <v>0</v>
-      </c>
-      <c r="J4" s="94">
+      <c r="I4" s="89">
         <v>42472204</v>
       </c>
-      <c r="K4" s="94">
+      <c r="J4" s="89">
         <v>42473346</v>
       </c>
-      <c r="L4" s="94">
+      <c r="K4" s="89">
+        <v>57510516</v>
+      </c>
+      <c r="L4" s="89">
+        <v>57510181</v>
+      </c>
+      <c r="M4" s="89">
+        <v>57510811</v>
+      </c>
+      <c r="N4" s="89">
         <v>42474235</v>
       </c>
-      <c r="M4" s="94">
+      <c r="O4" s="89">
         <v>42484812</v>
       </c>
-      <c r="N4" s="94">
+      <c r="P4" s="89">
         <v>42485049</v>
       </c>
-      <c r="O4" s="94">
+      <c r="Q4" s="89">
         <v>42485096</v>
       </c>
-      <c r="P4" s="94">
+      <c r="R4" s="89">
         <v>42485238</v>
       </c>
-      <c r="Q4" s="94">
+      <c r="S4" s="89">
         <v>42485443</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="89" t="s">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A5" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="86">
+      <c r="B5" s="51">
         <v>61438</v>
       </c>
       <c r="C5" t="s">
         <v>414</v>
       </c>
-      <c r="D5" s="96">
+      <c r="D5" s="89">
         <v>42414627</v>
       </c>
-      <c r="E5" s="94">
+      <c r="E5" s="89">
         <v>42485582</v>
       </c>
-      <c r="F5" s="94">
+      <c r="F5" s="89">
         <v>42469381</v>
       </c>
-      <c r="G5" s="94">
+      <c r="G5" s="89">
         <v>0</v>
       </c>
-      <c r="H5" s="94">
+      <c r="H5" s="89">
         <v>42471897</v>
       </c>
-      <c r="I5" s="94">
-        <v>0</v>
-      </c>
-      <c r="J5" s="94">
+      <c r="I5" s="89">
         <v>42472241</v>
       </c>
-      <c r="K5" s="94">
+      <c r="J5" s="89">
         <v>42473415</v>
       </c>
-      <c r="L5" s="94">
+      <c r="K5" s="89">
+        <v>57510517</v>
+      </c>
+      <c r="L5" s="89">
+        <v>57510182</v>
+      </c>
+      <c r="M5" s="89">
+        <v>57510812</v>
+      </c>
+      <c r="N5" s="89">
         <v>42474253</v>
       </c>
-      <c r="M5" s="94">
+      <c r="O5" s="89">
         <v>42484817</v>
       </c>
-      <c r="N5" s="94">
+      <c r="P5" s="89">
         <v>42485050</v>
       </c>
-      <c r="O5" s="94">
+      <c r="Q5" s="89">
         <v>42485097</v>
       </c>
-      <c r="P5" s="94">
+      <c r="R5" s="89">
         <v>42485242</v>
       </c>
-      <c r="Q5" s="94">
+      <c r="S5" s="89">
         <v>42485447</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="89" t="s">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A6" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="86">
+      <c r="B6" s="51">
         <v>50226</v>
       </c>
       <c r="C6" t="s">
         <v>417</v>
       </c>
-      <c r="D6" s="96">
+      <c r="D6" s="89">
         <v>42414757</v>
       </c>
-      <c r="E6" s="94">
+      <c r="E6" s="89">
         <v>42485585</v>
       </c>
-      <c r="F6" s="94">
+      <c r="F6" s="89">
         <v>42471321</v>
       </c>
-      <c r="G6" s="94">
+      <c r="G6" s="89">
         <v>42487283</v>
       </c>
-      <c r="H6" s="94">
+      <c r="H6" s="89">
         <v>0</v>
       </c>
-      <c r="I6" s="94">
-        <v>0</v>
-      </c>
-      <c r="J6" s="94">
+      <c r="I6" s="89">
         <v>42472264</v>
       </c>
-      <c r="K6" s="94">
+      <c r="J6" s="89">
         <v>42473417</v>
       </c>
-      <c r="L6" s="94">
+      <c r="K6" s="89">
+        <v>57510518</v>
+      </c>
+      <c r="L6" s="89">
+        <v>57510183</v>
+      </c>
+      <c r="M6" s="89">
+        <v>57510813</v>
+      </c>
+      <c r="N6" s="89">
         <v>42474293</v>
       </c>
-      <c r="M6" s="94">
+      <c r="O6" s="89">
         <v>42484822</v>
       </c>
-      <c r="N6" s="94">
+      <c r="P6" s="89">
         <v>42485051</v>
       </c>
-      <c r="O6" s="94">
+      <c r="Q6" s="89">
         <v>42485099</v>
       </c>
-      <c r="P6" s="94">
+      <c r="R6" s="89">
         <v>42485249</v>
       </c>
-      <c r="Q6" s="94">
+      <c r="S6" s="89">
         <v>42485449</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="89" t="s">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A7" s="84" t="s">
         <v>449</v>
       </c>
-      <c r="B7" s="86">
+      <c r="B7" s="51">
         <v>39912</v>
       </c>
       <c r="C7" t="s">
         <v>388</v>
       </c>
-      <c r="D7" s="96">
+      <c r="D7" s="89">
         <v>42467981</v>
       </c>
-      <c r="E7" s="94">
+      <c r="E7" s="89">
         <v>42485586</v>
       </c>
-      <c r="F7" s="94">
+      <c r="F7" s="89">
         <v>42471322</v>
       </c>
-      <c r="G7" s="94">
+      <c r="G7" s="89">
         <v>42487311</v>
       </c>
-      <c r="H7" s="94">
+      <c r="H7" s="89">
         <v>42471911</v>
       </c>
-      <c r="I7" s="94">
-        <v>0</v>
-      </c>
-      <c r="J7" s="94">
+      <c r="I7" s="89">
         <v>42472288</v>
       </c>
-      <c r="K7" s="94">
+      <c r="J7" s="89">
         <v>42473420</v>
       </c>
-      <c r="L7" s="94">
+      <c r="K7" s="89">
+        <v>57510519</v>
+      </c>
+      <c r="L7" s="89">
+        <v>57510184</v>
+      </c>
+      <c r="M7" s="89">
+        <v>57510815</v>
+      </c>
+      <c r="N7" s="89">
         <v>42474318</v>
       </c>
-      <c r="M7" s="94">
+      <c r="O7" s="89">
         <v>42484864</v>
       </c>
-      <c r="N7" s="94">
+      <c r="P7" s="89">
         <v>42485052</v>
       </c>
-      <c r="O7" s="94">
+      <c r="Q7" s="89">
         <v>42485101</v>
       </c>
-      <c r="P7" s="94">
+      <c r="R7" s="89">
         <v>42485255</v>
       </c>
-      <c r="Q7" s="94">
+      <c r="S7" s="89">
         <v>42485453</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="88">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A8" s="83">
         <v>194177155138</v>
       </c>
-      <c r="B8" s="86">
+      <c r="B8" s="51">
         <v>6798</v>
       </c>
       <c r="C8" t="s">
         <v>518</v>
       </c>
-      <c r="D8" s="96">
+      <c r="D8" s="89">
         <v>42468015</v>
       </c>
-      <c r="E8" s="94">
+      <c r="E8" s="89">
         <v>42485587</v>
       </c>
-      <c r="F8" s="94">
+      <c r="F8" s="89">
         <v>42471324</v>
       </c>
-      <c r="G8" s="94">
+      <c r="G8" s="89">
         <v>42487346</v>
       </c>
-      <c r="H8" s="94">
+      <c r="H8" s="89">
         <v>42471926</v>
       </c>
-      <c r="I8" s="94">
+      <c r="I8" s="89">
         <v>0</v>
       </c>
-      <c r="J8" s="94">
-        <v>0</v>
-      </c>
-      <c r="K8" s="94">
+      <c r="J8" s="89">
         <v>42473426</v>
       </c>
-      <c r="L8" s="94">
+      <c r="K8" s="89">
+        <v>57510521</v>
+      </c>
+      <c r="L8" s="89">
+        <v>57510185</v>
+      </c>
+      <c r="M8" s="89">
+        <v>57510816</v>
+      </c>
+      <c r="N8" s="89">
         <v>42474355</v>
       </c>
-      <c r="M8" s="94">
+      <c r="O8" s="89">
         <v>42484869</v>
       </c>
-      <c r="N8" s="94">
+      <c r="P8" s="89">
         <v>42485056</v>
       </c>
-      <c r="O8" s="94">
+      <c r="Q8" s="89">
         <v>42485107</v>
       </c>
-      <c r="P8" s="94">
+      <c r="R8" s="89">
         <v>42485257</v>
       </c>
-      <c r="Q8" s="94">
+      <c r="S8" s="89">
         <v>42485456</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="89" t="s">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A9" s="84" t="s">
         <v>336</v>
       </c>
-      <c r="B9" s="86">
+      <c r="B9" s="51">
         <v>61201</v>
       </c>
       <c r="C9" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="96">
+      <c r="D9" s="89">
         <v>42468028</v>
       </c>
-      <c r="E9" s="94">
+      <c r="E9" s="89">
         <v>42485592</v>
       </c>
-      <c r="F9" s="94">
+      <c r="F9" s="89">
         <v>42471363</v>
       </c>
-      <c r="G9" s="94">
+      <c r="G9" s="89">
         <v>42487364</v>
       </c>
-      <c r="H9" s="94">
+      <c r="H9" s="89">
         <v>42471942</v>
       </c>
-      <c r="I9" s="94">
+      <c r="I9" s="89">
+        <v>42472316</v>
+      </c>
+      <c r="J9" s="89">
         <v>0</v>
       </c>
-      <c r="J9" s="94">
-        <v>42472316</v>
-      </c>
-      <c r="K9" s="94">
-        <v>0</v>
-      </c>
-      <c r="L9" s="94">
+      <c r="K9" s="89">
+        <v>57510522</v>
+      </c>
+      <c r="L9" s="89">
+        <v>57510189</v>
+      </c>
+      <c r="M9" s="89">
+        <v>57510817</v>
+      </c>
+      <c r="N9" s="89">
         <v>42474360</v>
       </c>
-      <c r="M9" s="94">
+      <c r="O9" s="89">
         <v>42484873</v>
       </c>
-      <c r="N9" s="94">
+      <c r="P9" s="89">
         <v>42485059</v>
       </c>
-      <c r="O9" s="94">
+      <c r="Q9" s="89">
         <v>42485111</v>
       </c>
-      <c r="P9" s="94">
+      <c r="R9" s="89">
         <v>42485258</v>
       </c>
-      <c r="Q9" s="94">
+      <c r="S9" s="89">
         <v>42485475</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="89" t="s">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A10" s="84" t="s">
         <v>378</v>
       </c>
-      <c r="B10" s="86">
+      <c r="B10" s="51">
         <v>29633</v>
       </c>
       <c r="C10" t="s">
         <v>264</v>
       </c>
-      <c r="D10" s="96">
+      <c r="D10" s="89">
         <v>42468061</v>
       </c>
-      <c r="E10" s="94">
+      <c r="E10" s="89">
         <v>42485595</v>
       </c>
-      <c r="F10" s="94">
+      <c r="F10" s="89">
         <v>42471394</v>
       </c>
-      <c r="G10" s="94">
+      <c r="G10" s="89">
         <v>42487387</v>
       </c>
-      <c r="H10" s="94">
+      <c r="H10" s="89">
         <v>42471975</v>
       </c>
-      <c r="I10" s="94">
-        <v>0</v>
-      </c>
-      <c r="J10" s="94">
+      <c r="I10" s="89">
         <v>42473252</v>
       </c>
-      <c r="K10" s="94">
+      <c r="J10" s="89">
         <v>42473429</v>
       </c>
-      <c r="L10" s="94">
+      <c r="K10" s="89">
+        <v>57510524</v>
+      </c>
+      <c r="L10" s="89">
+        <v>57510190</v>
+      </c>
+      <c r="M10" s="89">
+        <v>57510818</v>
+      </c>
+      <c r="N10" s="89">
         <v>42474365</v>
       </c>
-      <c r="M10" s="94">
+      <c r="O10" s="89">
         <v>42484876</v>
       </c>
-      <c r="N10" s="94">
+      <c r="P10" s="89">
         <v>42485061</v>
       </c>
-      <c r="O10" s="94">
+      <c r="Q10" s="89">
         <v>42485115</v>
       </c>
-      <c r="P10" s="94">
+      <c r="R10" s="89">
         <v>42485259</v>
       </c>
-      <c r="Q10" s="94">
+      <c r="S10" s="89">
         <v>42485529</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="89" t="s">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A11" s="84" t="s">
         <v>269</v>
       </c>
-      <c r="B11" s="86">
+      <c r="B11" s="51">
         <v>1853</v>
       </c>
       <c r="C11" t="s">
         <v>505</v>
       </c>
-      <c r="D11" s="94">
+      <c r="D11" s="89">
         <v>42468699</v>
       </c>
-      <c r="E11" s="94">
+      <c r="E11" s="89">
         <v>42485596</v>
       </c>
-      <c r="F11" s="94">
+      <c r="F11" s="89">
         <v>42471396</v>
       </c>
-      <c r="G11" s="94">
+      <c r="G11" s="89">
         <v>42487405</v>
       </c>
-      <c r="H11" s="94">
+      <c r="H11" s="89">
         <v>42471984</v>
       </c>
-      <c r="I11" s="94">
+      <c r="I11" s="89">
+        <v>42473253</v>
+      </c>
+      <c r="J11" s="89">
+        <v>42473433</v>
+      </c>
+      <c r="K11" s="89">
+        <v>57510525</v>
+      </c>
+      <c r="L11" s="89">
+        <v>57510191</v>
+      </c>
+      <c r="M11" s="89">
+        <v>57510819</v>
+      </c>
+      <c r="N11" s="89">
+        <v>42474366</v>
+      </c>
+      <c r="O11" s="89">
+        <v>42484880</v>
+      </c>
+      <c r="P11" s="89">
+        <v>42485064</v>
+      </c>
+      <c r="Q11" s="89">
+        <v>42485121</v>
+      </c>
+      <c r="R11" s="89">
+        <v>42485262</v>
+      </c>
+      <c r="S11" s="89">
+        <v>42485553</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A12" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="51">
+        <v>52690</v>
+      </c>
+      <c r="C12" s="84" t="s">
+        <v>519</v>
+      </c>
+      <c r="D12" s="89">
+        <v>57510535</v>
+      </c>
+      <c r="E12" s="89">
+        <v>57510537</v>
+      </c>
+      <c r="F12" s="89">
+        <v>57510538</v>
+      </c>
+      <c r="G12" s="89">
+        <v>57510540</v>
+      </c>
+      <c r="H12" s="89">
+        <v>57510541</v>
+      </c>
+      <c r="I12" s="89">
+        <v>57510544</v>
+      </c>
+      <c r="J12" s="89">
+        <v>57510545</v>
+      </c>
+      <c r="K12" s="89">
         <v>0</v>
       </c>
-      <c r="J11" s="94">
-        <v>42473253</v>
-      </c>
-      <c r="K11" s="94">
-        <v>42473433</v>
-      </c>
-      <c r="L11" s="94">
-        <v>42474366</v>
-      </c>
-      <c r="M11" s="94">
-        <v>42484880</v>
-      </c>
-      <c r="N11" s="94">
-        <v>42485064</v>
-      </c>
-      <c r="O11" s="94">
-        <v>42485121</v>
-      </c>
-      <c r="P11" s="94">
-        <v>42485262</v>
-      </c>
-      <c r="Q11" s="94">
-        <v>42485553</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="88">
+      <c r="L12" s="89">
+        <v>57510192</v>
+      </c>
+      <c r="M12" s="89">
+        <v>57510548</v>
+      </c>
+      <c r="N12" s="89">
+        <v>57510549</v>
+      </c>
+      <c r="O12" s="89">
+        <v>57510550</v>
+      </c>
+      <c r="P12" s="89">
+        <v>57510551</v>
+      </c>
+      <c r="Q12" s="89">
+        <v>57510552</v>
+      </c>
+      <c r="R12" s="89">
+        <v>57510553</v>
+      </c>
+      <c r="S12" s="89">
+        <v>57510554</v>
+      </c>
+      <c r="T12" s="89"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A13" s="84" t="s">
+        <v>516</v>
+      </c>
+      <c r="B13" s="51">
+        <v>15439</v>
+      </c>
+      <c r="C13" s="84" t="s">
+        <v>520</v>
+      </c>
+      <c r="D13" s="89">
+        <v>57510202</v>
+      </c>
+      <c r="E13" s="89">
+        <v>57510206</v>
+      </c>
+      <c r="F13" s="89">
+        <v>57510207</v>
+      </c>
+      <c r="G13" s="89">
+        <v>57510209</v>
+      </c>
+      <c r="H13" s="89">
+        <v>57510210</v>
+      </c>
+      <c r="I13" s="89">
+        <v>0</v>
+      </c>
+      <c r="J13" s="89">
+        <v>57510213</v>
+      </c>
+      <c r="K13" s="89">
+        <v>57510213</v>
+      </c>
+      <c r="L13" s="89">
+        <v>0</v>
+      </c>
+      <c r="M13" s="89">
+        <v>57510215</v>
+      </c>
+      <c r="N13" s="89">
+        <v>57510216</v>
+      </c>
+      <c r="O13" s="89">
+        <v>57510289</v>
+      </c>
+      <c r="P13" s="89">
+        <v>57510290</v>
+      </c>
+      <c r="Q13" s="89">
+        <v>57510291</v>
+      </c>
+      <c r="R13" s="89">
+        <v>57510292</v>
+      </c>
+      <c r="S13" s="89">
+        <v>57510293</v>
+      </c>
+      <c r="T13" s="89"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A14" s="84" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="51">
+        <v>50074</v>
+      </c>
+      <c r="C14" s="84" t="s">
+        <v>521</v>
+      </c>
+      <c r="D14" s="89">
+        <v>57510830</v>
+      </c>
+      <c r="E14" s="89">
+        <v>57510832</v>
+      </c>
+      <c r="F14" s="89">
+        <v>57510834</v>
+      </c>
+      <c r="G14" s="89">
+        <v>57510835</v>
+      </c>
+      <c r="H14" s="89">
+        <v>57510836</v>
+      </c>
+      <c r="I14" s="89">
+        <v>57510838</v>
+      </c>
+      <c r="J14" s="89">
+        <v>57510839</v>
+      </c>
+      <c r="K14" s="89">
+        <v>57510841</v>
+      </c>
+      <c r="L14" s="89">
+        <v>57510843</v>
+      </c>
+      <c r="M14" s="89">
+        <v>0</v>
+      </c>
+      <c r="N14" s="89">
+        <v>57510845</v>
+      </c>
+      <c r="O14" s="89">
+        <v>57510846</v>
+      </c>
+      <c r="P14" s="89">
+        <v>57510847</v>
+      </c>
+      <c r="Q14" s="89">
+        <v>57510848</v>
+      </c>
+      <c r="R14" s="89">
+        <v>57510850</v>
+      </c>
+      <c r="S14" s="89">
+        <v>0</v>
+      </c>
+      <c r="T14" s="89"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A15" s="83">
         <v>149112112112</v>
       </c>
-      <c r="B12" s="86"/>
-      <c r="C12" t="s">
+      <c r="B15" s="51"/>
+      <c r="C15" t="s">
         <v>506</v>
       </c>
-      <c r="D12" s="94">
+      <c r="D15" s="89">
         <v>42469018</v>
       </c>
-      <c r="E12" s="94">
+      <c r="E15" s="89">
         <v>42487037</v>
       </c>
-      <c r="F12" s="94">
+      <c r="F15" s="89">
         <v>42471397</v>
       </c>
-      <c r="G12" s="94">
+      <c r="G15" s="89">
         <v>42487432</v>
       </c>
-      <c r="H12" s="94">
+      <c r="H15" s="89">
         <v>42471987</v>
       </c>
-      <c r="I12" s="94">
+      <c r="I15" s="89">
+        <v>42473254</v>
+      </c>
+      <c r="J15" s="89">
+        <v>42473448</v>
+      </c>
+      <c r="K15" s="89">
         <v>0</v>
       </c>
-      <c r="J12" s="94">
-        <v>42473254</v>
-      </c>
-      <c r="K12" s="94">
-        <v>42473448</v>
-      </c>
-      <c r="L12" s="94">
+      <c r="L15" s="89">
+        <v>0</v>
+      </c>
+      <c r="M15" s="89">
+        <v>0</v>
+      </c>
+      <c r="N15" s="89">
         <v>42474367</v>
       </c>
-      <c r="M12" s="94">
+      <c r="O15" s="89">
         <v>42484885</v>
       </c>
-      <c r="N12" s="94">
+      <c r="P15" s="89">
         <v>42485065</v>
       </c>
-      <c r="O12" s="94">
+      <c r="Q15" s="89">
         <v>42485127</v>
       </c>
-      <c r="P12" s="94">
+      <c r="R15" s="89">
         <v>42485264</v>
       </c>
-      <c r="Q12" s="94">
+      <c r="S15" s="89">
         <v>42485554</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="89" t="s">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A16" s="84" t="s">
         <v>286</v>
       </c>
-      <c r="B13" s="86"/>
-      <c r="C13" t="s">
+      <c r="B16" s="51"/>
+      <c r="C16" t="s">
         <v>507</v>
       </c>
-      <c r="D13" s="94">
+      <c r="D16" s="89">
         <v>42469048</v>
       </c>
-      <c r="E13" s="94">
+      <c r="E16" s="89">
         <v>42487065</v>
       </c>
-      <c r="F13" s="94">
+      <c r="F16" s="89">
         <v>42471399</v>
       </c>
-      <c r="G13" s="94">
+      <c r="G16" s="89">
         <v>42487450</v>
       </c>
-      <c r="H13" s="94">
+      <c r="H16" s="89">
         <v>42471988</v>
       </c>
-      <c r="I13" s="94">
+      <c r="I16" s="89">
+        <v>42473256</v>
+      </c>
+      <c r="J16" s="89">
+        <v>42473513</v>
+      </c>
+      <c r="K16" s="89">
         <v>0</v>
       </c>
-      <c r="J13" s="94">
-        <v>42473256</v>
-      </c>
-      <c r="K13" s="94">
-        <v>42473513</v>
-      </c>
-      <c r="L13" s="97">
+      <c r="L16" s="89">
+        <v>0</v>
+      </c>
+      <c r="M16" s="89">
+        <v>0</v>
+      </c>
+      <c r="N16" s="91">
         <v>42484773</v>
       </c>
-      <c r="M13" s="94">
+      <c r="O16" s="89">
         <v>42484892</v>
       </c>
-      <c r="N13" s="94">
+      <c r="P16" s="89">
         <v>42485067</v>
       </c>
-      <c r="O13" s="94">
+      <c r="Q16" s="89">
         <v>42485188</v>
       </c>
-      <c r="P13" s="94">
+      <c r="R16" s="89">
         <v>42485267</v>
       </c>
-      <c r="Q13" s="94">
+      <c r="S16" s="89">
         <v>42485555</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="89" t="s">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A17" s="84" t="s">
         <v>293</v>
       </c>
-      <c r="B14" s="86"/>
-      <c r="C14" t="s">
+      <c r="B17" s="51"/>
+      <c r="C17" t="s">
         <v>508</v>
       </c>
-      <c r="D14" s="94">
+      <c r="D17" s="89">
         <v>42469053</v>
       </c>
-      <c r="E14" s="94">
+      <c r="E17" s="89">
         <v>42487088</v>
       </c>
-      <c r="F14" s="94">
+      <c r="F17" s="89">
         <v>42471400</v>
       </c>
-      <c r="G14" s="94">
+      <c r="G17" s="89">
         <v>42487489</v>
       </c>
-      <c r="H14" s="94">
+      <c r="H17" s="89">
         <v>42472013</v>
       </c>
-      <c r="I14" s="94">
+      <c r="I17" s="89">
+        <v>42473257</v>
+      </c>
+      <c r="J17" s="89">
+        <v>42473539</v>
+      </c>
+      <c r="K17" s="89">
         <v>0</v>
       </c>
-      <c r="J14" s="94">
-        <v>42473257</v>
-      </c>
-      <c r="K14" s="94">
-        <v>42473539</v>
-      </c>
-      <c r="L14" s="94">
+      <c r="L17" s="89">
+        <v>0</v>
+      </c>
+      <c r="M17" s="89">
+        <v>0</v>
+      </c>
+      <c r="N17" s="89">
         <v>42484776</v>
       </c>
-      <c r="M14" s="94">
+      <c r="O17" s="89">
         <v>42484894</v>
       </c>
-      <c r="N14" s="94">
+      <c r="P17" s="89">
         <v>42485068</v>
       </c>
-      <c r="O14" s="94">
+      <c r="Q17" s="89">
         <v>42485195</v>
       </c>
-      <c r="P14" s="94">
+      <c r="R17" s="89">
         <v>42485270</v>
       </c>
-      <c r="Q14" s="94">
+      <c r="S17" s="89">
         <v>42485556</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="89" t="s">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A18" s="84" t="s">
         <v>121</v>
       </c>
-      <c r="B15" s="86">
+      <c r="B18" s="51">
         <v>2107</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C18" t="s">
         <v>509</v>
       </c>
-      <c r="D15" s="94">
+      <c r="D18" s="89">
         <v>42469059</v>
       </c>
-      <c r="E15" s="94">
+      <c r="E18" s="89">
         <v>42487104</v>
       </c>
-      <c r="F15" s="94">
+      <c r="F18" s="89">
         <v>42471401</v>
       </c>
-      <c r="G15" s="94">
+      <c r="G18" s="89">
         <v>42487524</v>
       </c>
-      <c r="H15" s="94">
+      <c r="H18" s="89">
         <v>42472041</v>
       </c>
-      <c r="I15" s="94">
+      <c r="I18" s="89">
+        <v>42473260</v>
+      </c>
+      <c r="J18" s="89">
+        <v>42473635</v>
+      </c>
+      <c r="K18" s="89">
+        <v>57510528</v>
+      </c>
+      <c r="L18" s="89">
+        <v>57510196</v>
+      </c>
+      <c r="M18" s="89">
+        <v>57510822</v>
+      </c>
+      <c r="N18" s="89">
         <v>0</v>
       </c>
-      <c r="J15" s="94">
-        <v>42473260</v>
-      </c>
-      <c r="K15" s="94">
-        <v>42473635</v>
-      </c>
-      <c r="L15" s="94">
+      <c r="O18" s="89">
+        <v>42484897</v>
+      </c>
+      <c r="P18" s="89">
+        <v>42485072</v>
+      </c>
+      <c r="Q18" s="89">
+        <v>42485200</v>
+      </c>
+      <c r="R18" s="89">
+        <v>42485289</v>
+      </c>
+      <c r="S18" s="89">
+        <v>42485557</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A19" s="84" t="s">
+        <v>129</v>
+      </c>
+      <c r="B19" s="51">
+        <v>8038</v>
+      </c>
+      <c r="C19" t="s">
+        <v>510</v>
+      </c>
+      <c r="D19" s="89">
+        <v>42469062</v>
+      </c>
+      <c r="E19" s="89">
+        <v>42487122</v>
+      </c>
+      <c r="F19" s="89">
+        <v>42471402</v>
+      </c>
+      <c r="G19" s="89">
+        <v>42487542</v>
+      </c>
+      <c r="H19" s="89">
+        <v>42472046</v>
+      </c>
+      <c r="I19" s="89">
+        <v>42473266</v>
+      </c>
+      <c r="J19" s="89">
+        <v>42473692</v>
+      </c>
+      <c r="K19" s="89">
+        <v>57510529</v>
+      </c>
+      <c r="L19" s="89">
+        <v>57510197</v>
+      </c>
+      <c r="M19" s="89">
+        <v>57510823</v>
+      </c>
+      <c r="N19" s="89">
+        <v>42484778</v>
+      </c>
+      <c r="O19" s="89">
         <v>0</v>
       </c>
-      <c r="M15" s="94">
-        <v>42484897</v>
-      </c>
-      <c r="N15" s="94">
-        <v>42485072</v>
-      </c>
-      <c r="O15" s="94">
-        <v>42485200</v>
-      </c>
-      <c r="P15" s="94">
-        <v>42485289</v>
-      </c>
-      <c r="Q15" s="94">
-        <v>42485557</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="89" t="s">
-        <v>129</v>
-      </c>
-      <c r="B16" s="86">
-        <v>8038</v>
-      </c>
-      <c r="C16" t="s">
-        <v>510</v>
-      </c>
-      <c r="D16" s="94">
-        <v>42469062</v>
-      </c>
-      <c r="E16" s="94">
-        <v>42487122</v>
-      </c>
-      <c r="F16" s="94">
-        <v>42471402</v>
-      </c>
-      <c r="G16" s="94">
-        <v>42487542</v>
-      </c>
-      <c r="H16" s="94">
-        <v>42472046</v>
-      </c>
-      <c r="I16" s="94">
+      <c r="P19" s="89">
+        <v>42485074</v>
+      </c>
+      <c r="Q19" s="89">
+        <v>42485204</v>
+      </c>
+      <c r="R19" s="89">
+        <v>42485347</v>
+      </c>
+      <c r="S19" s="89">
+        <v>42485558</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A20" s="84" t="s">
+        <v>158</v>
+      </c>
+      <c r="B20" s="51">
+        <v>205493</v>
+      </c>
+      <c r="C20" t="s">
+        <v>511</v>
+      </c>
+      <c r="D20" s="89">
+        <v>42469126</v>
+      </c>
+      <c r="E20" s="89">
+        <v>42487124</v>
+      </c>
+      <c r="F20" s="89">
+        <v>42471414</v>
+      </c>
+      <c r="G20" s="89">
+        <v>42487567</v>
+      </c>
+      <c r="H20" s="89">
+        <v>42472050</v>
+      </c>
+      <c r="I20" s="89">
+        <v>42473270</v>
+      </c>
+      <c r="J20" s="89">
+        <v>42473730</v>
+      </c>
+      <c r="K20" s="89">
+        <v>57510530</v>
+      </c>
+      <c r="L20" s="89">
+        <v>57510198</v>
+      </c>
+      <c r="M20" s="89">
+        <v>57510824</v>
+      </c>
+      <c r="N20" s="89">
+        <v>42484779</v>
+      </c>
+      <c r="O20" s="89">
+        <v>42484900</v>
+      </c>
+      <c r="P20" s="89">
         <v>0</v>
       </c>
-      <c r="J16" s="94">
-        <v>42473266</v>
-      </c>
-      <c r="K16" s="94">
-        <v>42473692</v>
-      </c>
-      <c r="L16" s="94">
-        <v>42484778</v>
-      </c>
-      <c r="M16" s="94">
+      <c r="Q20" s="89">
+        <v>42485206</v>
+      </c>
+      <c r="R20" s="89">
+        <v>42485400</v>
+      </c>
+      <c r="S20" s="89">
+        <v>42485562</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A21" s="84" t="s">
+        <v>513</v>
+      </c>
+      <c r="B21" s="51">
+        <v>396982</v>
+      </c>
+      <c r="C21" t="s">
+        <v>512</v>
+      </c>
+      <c r="D21" s="89">
+        <v>42469175</v>
+      </c>
+      <c r="E21" s="89">
+        <v>42487127</v>
+      </c>
+      <c r="F21" s="89">
+        <v>42471460</v>
+      </c>
+      <c r="G21" s="89">
+        <v>42487581</v>
+      </c>
+      <c r="H21" s="89">
+        <v>42472055</v>
+      </c>
+      <c r="I21" s="89">
+        <v>42473275</v>
+      </c>
+      <c r="J21" s="89">
+        <v>42473742</v>
+      </c>
+      <c r="K21" s="89">
+        <v>57510531</v>
+      </c>
+      <c r="L21" s="89">
+        <v>57510199</v>
+      </c>
+      <c r="M21" s="89">
+        <v>57510826</v>
+      </c>
+      <c r="N21" s="89">
+        <v>42484780</v>
+      </c>
+      <c r="O21" s="89">
+        <v>42484903</v>
+      </c>
+      <c r="P21" s="89">
+        <v>42485078</v>
+      </c>
+      <c r="Q21" s="89">
         <v>0</v>
       </c>
-      <c r="N16" s="94">
-        <v>42485074</v>
-      </c>
-      <c r="O16" s="94">
-        <v>42485204</v>
-      </c>
-      <c r="P16" s="94">
-        <v>42485347</v>
-      </c>
-      <c r="Q16" s="94">
-        <v>42485558</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="89" t="s">
-        <v>158</v>
-      </c>
-      <c r="B17" s="86">
-        <v>205493</v>
-      </c>
-      <c r="C17" t="s">
-        <v>511</v>
-      </c>
-      <c r="D17" s="94">
-        <v>42469126</v>
-      </c>
-      <c r="E17" s="94">
-        <v>42487124</v>
-      </c>
-      <c r="F17" s="94">
-        <v>42471414</v>
-      </c>
-      <c r="G17" s="94">
-        <v>42487567</v>
-      </c>
-      <c r="H17" s="94">
-        <v>42472050</v>
-      </c>
-      <c r="I17" s="94">
+      <c r="R21" s="89">
+        <v>42485402</v>
+      </c>
+      <c r="S21" s="89">
+        <v>42485564</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A22" s="84" t="s">
+        <v>514</v>
+      </c>
+      <c r="B22" s="51">
+        <v>559</v>
+      </c>
+      <c r="C22" t="s">
+        <v>515</v>
+      </c>
+      <c r="D22" s="89">
+        <v>42469216</v>
+      </c>
+      <c r="E22" s="89">
+        <v>42487130</v>
+      </c>
+      <c r="F22" s="89">
+        <v>42471481</v>
+      </c>
+      <c r="G22" s="89">
+        <v>42487600</v>
+      </c>
+      <c r="H22" s="89">
+        <v>42472059</v>
+      </c>
+      <c r="I22" s="89">
+        <v>42473279</v>
+      </c>
+      <c r="J22" s="89">
+        <v>42473747</v>
+      </c>
+      <c r="K22" s="89">
+        <v>57510532</v>
+      </c>
+      <c r="L22" s="89">
+        <v>57510200</v>
+      </c>
+      <c r="M22" s="89">
+        <v>57510828</v>
+      </c>
+      <c r="N22" s="89">
+        <v>42484781</v>
+      </c>
+      <c r="O22" s="89">
+        <v>42484906</v>
+      </c>
+      <c r="P22" s="89">
+        <v>42485080</v>
+      </c>
+      <c r="Q22" s="89">
+        <v>42485211</v>
+      </c>
+      <c r="R22" s="89">
         <v>0</v>
       </c>
-      <c r="J17" s="94">
-        <v>42473270</v>
-      </c>
-      <c r="K17" s="94">
-        <v>42473730</v>
-      </c>
-      <c r="L17" s="94">
-        <v>42484779</v>
-      </c>
-      <c r="M17" s="94">
-        <v>42484900</v>
-      </c>
-      <c r="N17" s="94">
+      <c r="S22" s="89">
+        <v>42485569</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="84" t="s">
+        <v>516</v>
+      </c>
+      <c r="B23" s="51">
+        <v>12303</v>
+      </c>
+      <c r="C23" t="s">
+        <v>517</v>
+      </c>
+      <c r="D23" s="89">
+        <v>42469218</v>
+      </c>
+      <c r="E23" s="89">
+        <v>42487147</v>
+      </c>
+      <c r="F23" s="89">
+        <v>42471495</v>
+      </c>
+      <c r="G23" s="89">
+        <v>42487619</v>
+      </c>
+      <c r="H23" s="89">
+        <v>42472061</v>
+      </c>
+      <c r="I23" s="89">
+        <v>42473280</v>
+      </c>
+      <c r="J23" s="89">
+        <v>42473750</v>
+      </c>
+      <c r="K23" s="89">
+        <v>57510534</v>
+      </c>
+      <c r="L23" s="89">
+        <v>57510201</v>
+      </c>
+      <c r="M23" s="89">
+        <v>57510829</v>
+      </c>
+      <c r="N23" s="89">
+        <v>42484784</v>
+      </c>
+      <c r="O23" s="89">
+        <v>42484909</v>
+      </c>
+      <c r="P23" s="89">
+        <v>42485082</v>
+      </c>
+      <c r="Q23" s="89">
+        <v>42485216</v>
+      </c>
+      <c r="R23" s="89">
+        <v>42485407</v>
+      </c>
+      <c r="S23" s="89">
         <v>0</v>
       </c>
-      <c r="O17" s="94">
-        <v>42485206</v>
-      </c>
-      <c r="P17" s="94">
-        <v>42485400</v>
-      </c>
-      <c r="Q17" s="94">
-        <v>42485562</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="89" t="s">
-        <v>513</v>
-      </c>
-      <c r="B18" s="86">
-        <v>396982</v>
-      </c>
-      <c r="C18" t="s">
-        <v>512</v>
-      </c>
-      <c r="D18" s="94">
-        <v>42469175</v>
-      </c>
-      <c r="E18" s="94">
-        <v>42487127</v>
-      </c>
-      <c r="F18" s="94">
-        <v>42471460</v>
-      </c>
-      <c r="G18" s="94">
-        <v>42487581</v>
-      </c>
-      <c r="H18" s="94">
-        <v>42472055</v>
-      </c>
-      <c r="I18" s="94">
-        <v>0</v>
-      </c>
-      <c r="J18" s="94">
-        <v>42473275</v>
-      </c>
-      <c r="K18" s="94">
-        <v>42473742</v>
-      </c>
-      <c r="L18" s="94">
-        <v>42484780</v>
-      </c>
-      <c r="M18" s="94">
-        <v>42484903</v>
-      </c>
-      <c r="N18" s="94">
-        <v>42485078</v>
-      </c>
-      <c r="O18" s="94">
-        <v>0</v>
-      </c>
-      <c r="P18" s="94">
-        <v>42485402</v>
-      </c>
-      <c r="Q18" s="94">
-        <v>42485564</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="89" t="s">
-        <v>514</v>
-      </c>
-      <c r="B19" s="86">
-        <v>559</v>
-      </c>
-      <c r="C19" t="s">
-        <v>515</v>
-      </c>
-      <c r="D19" s="94">
-        <v>42469216</v>
-      </c>
-      <c r="E19" s="94">
-        <v>42487130</v>
-      </c>
-      <c r="F19" s="94">
-        <v>42471481</v>
-      </c>
-      <c r="G19" s="94">
-        <v>42487600</v>
-      </c>
-      <c r="H19" s="94">
-        <v>42472059</v>
-      </c>
-      <c r="I19" s="94">
-        <v>0</v>
-      </c>
-      <c r="J19" s="94">
-        <v>42473279</v>
-      </c>
-      <c r="K19" s="94">
-        <v>42473747</v>
-      </c>
-      <c r="L19" s="94">
-        <v>42484781</v>
-      </c>
-      <c r="M19" s="94">
-        <v>42484906</v>
-      </c>
-      <c r="N19" s="94">
-        <v>42485080</v>
-      </c>
-      <c r="O19" s="94">
-        <v>42485211</v>
-      </c>
-      <c r="P19" s="94">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="94">
-        <v>42485569</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="89" t="s">
-        <v>516</v>
-      </c>
-      <c r="B20" s="86">
-        <v>12303</v>
-      </c>
-      <c r="C20" t="s">
-        <v>517</v>
-      </c>
-      <c r="D20" s="94">
-        <v>42469218</v>
-      </c>
-      <c r="E20" s="94">
-        <v>42487147</v>
-      </c>
-      <c r="F20" s="94">
-        <v>42471495</v>
-      </c>
-      <c r="G20" s="94">
-        <v>42487619</v>
-      </c>
-      <c r="H20" s="94">
-        <v>42472061</v>
-      </c>
-      <c r="I20" s="94">
-        <v>0</v>
-      </c>
-      <c r="J20" s="94">
-        <v>42473280</v>
-      </c>
-      <c r="K20" s="94">
-        <v>42473750</v>
-      </c>
-      <c r="L20" s="94">
-        <v>42484784</v>
-      </c>
-      <c r="M20" s="94">
-        <v>42484909</v>
-      </c>
-      <c r="N20" s="94">
-        <v>42485082</v>
-      </c>
-      <c r="O20" s="94">
-        <v>42485216</v>
-      </c>
-      <c r="P20" s="94">
-        <v>42485407</v>
-      </c>
-      <c r="Q20" s="94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="90"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="90"/>
-      <c r="N21" s="90"/>
-      <c r="O21" s="90"/>
-      <c r="P21" s="91"/>
-      <c r="Q21" s="92"/>
+    </row>
+    <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E24" s="85"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="85"/>
+      <c r="I24" s="85"/>
+      <c r="J24" s="85"/>
+      <c r="K24" s="85"/>
+      <c r="L24" s="89"/>
+      <c r="N24" s="85"/>
+      <c r="O24" s="85"/>
+      <c r="P24" s="85"/>
+      <c r="Q24" s="85"/>
+      <c r="R24" s="86"/>
+      <c r="S24" s="87"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B18" r:id="rId1" display="https://stat.ripe.net/396982" xr:uid="{7F2F3AF4-46C7-44E0-B4F8-A11BA24E050A}"/>
-    <hyperlink ref="B20" r:id="rId2" display="https://stat.ripe.net/12303" xr:uid="{BBBAD5E3-B4E7-4183-94B2-04AB7F80DCC0}"/>
-    <hyperlink ref="A20" r:id="rId3" display="https://stat.ripe.net/5.28.0.17" xr:uid="{DFCD1D95-9E93-444E-9A84-15897DAA17C9}"/>
-    <hyperlink ref="A19" r:id="rId4" display="https://stat.ripe.net/130.59.80.2" xr:uid="{59879706-4BFB-4029-8501-51487D90A1AB}"/>
-    <hyperlink ref="A18" r:id="rId5" display="https://stat.ripe.net/34.89.240.90" xr:uid="{A6962241-D8BA-4F0B-BAA5-CB14374B93E3}"/>
+    <hyperlink ref="B21" r:id="rId1" display="https://stat.ripe.net/396982" xr:uid="{7F2F3AF4-46C7-44E0-B4F8-A11BA24E050A}"/>
+    <hyperlink ref="B23" r:id="rId2" display="https://stat.ripe.net/12303" xr:uid="{BBBAD5E3-B4E7-4183-94B2-04AB7F80DCC0}"/>
+    <hyperlink ref="A23" r:id="rId3" display="https://stat.ripe.net/5.28.0.17" xr:uid="{DFCD1D95-9E93-444E-9A84-15897DAA17C9}"/>
+    <hyperlink ref="A22" r:id="rId4" display="https://stat.ripe.net/130.59.80.2" xr:uid="{59879706-4BFB-4029-8501-51487D90A1AB}"/>
+    <hyperlink ref="A21" r:id="rId5" display="https://stat.ripe.net/34.89.240.90" xr:uid="{A6962241-D8BA-4F0B-BAA5-CB14374B93E3}"/>
+    <hyperlink ref="L2" r:id="rId6" display="https://atlas.ripe.net/measurements/57510179/" xr:uid="{F48DCD5F-48CD-4F32-8C12-5A19289D8D9D}"/>
+    <hyperlink ref="R14" r:id="rId7" display="https://atlas.ripe.net/measurements/57510850/" xr:uid="{917177D6-BE4C-46CA-9118-E21B1606967B}"/>
+    <hyperlink ref="J13" r:id="rId8" display="https://atlas.ripe.net/measurements/57510213/" xr:uid="{7F69D82D-1C11-467C-A899-4839A76DC3EC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="76" orientation="landscape" verticalDpi="0" r:id="rId6"/>
+  <pageSetup paperSize="9" scale="76" orientation="landscape" r:id="rId9"/>
 </worksheet>
 </file>